--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E3D0D-2917-47AB-80E4-E40B688D65ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854CB61-C861-4B2E-9E44-CFCC59A08AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16290" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1534,9 +1534,11 @@
         <v>41.38</v>
       </c>
       <c r="D28" s="7">
-        <v>41.32</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>41.39</v>
+      </c>
+      <c r="E28" s="7">
+        <v>41.54</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2020,9 +2022,12 @@
       </c>
       <c r="D38" s="10">
         <f t="shared" si="8"/>
-        <v>3.0680967822399596E-2</v>
-      </c>
-      <c r="E38" s="10"/>
+        <v>3.2427039161885718E-2</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.2397243416194756E-2</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2035,16 +2040,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2061,7 +2066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2071,54 +2076,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2127,10 +2132,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2139,10 +2144,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2151,10 +2156,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2163,10 +2168,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2175,10 +2180,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2187,10 +2192,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2912,7 +2917,9 @@
       <c r="D29" s="19">
         <v>33.200000000000003</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="19">
+        <v>33.1</v>
+      </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -3411,7 +3418,10 @@
         <f t="shared" si="6"/>
         <v>-3.0030030030028243E-3</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10">
+        <f t="shared" si="6"/>
+        <v>-8.9820359281436168E-3</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3451,7 +3461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3462,114 +3472,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3578,10 +3588,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4301,9 +4311,11 @@
         <v>1377.95</v>
       </c>
       <c r="D29" s="11">
-        <v>1371.82</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>1374.15</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1374.97</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -4743,9 +4755,12 @@
       </c>
       <c r="D38" s="10">
         <f t="shared" si="5"/>
-        <v>2.7580524344569257E-2</v>
-      </c>
-      <c r="E38" s="10"/>
+        <v>2.932584269662919E-2</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="5"/>
+        <v>1.3212580321876999E-2</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -4758,17 +4773,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854CB61-C861-4B2E-9E44-CFCC59A08AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C329E3-0559-4212-8B55-09CC7C218F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1537,9 +1537,11 @@
         <v>41.39</v>
       </c>
       <c r="E28" s="7">
-        <v>41.54</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>40.909999999999997</v>
+      </c>
+      <c r="F28" s="7">
+        <v>41.14</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2026,9 +2028,12 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" si="8"/>
-        <v>2.2397243416194756E-2</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>6.8914595126752243E-3</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.01058710298364E-2</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -2040,16 +2045,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2066,7 +2071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2076,54 +2081,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2132,10 +2137,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2144,10 +2149,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2156,10 +2161,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2168,10 +2173,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2180,10 +2185,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2192,10 +2197,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2920,7 +2925,9 @@
       <c r="E29" s="19">
         <v>33.1</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19">
+        <v>33.6</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -3422,7 +3429,10 @@
         <f t="shared" si="6"/>
         <v>-8.9820359281436168E-3</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.4662756598240456E-2</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -3461,7 +3471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3472,114 +3482,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3588,10 +3598,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4314,9 +4324,11 @@
         <v>1374.15</v>
       </c>
       <c r="E29" s="11">
-        <v>1374.97</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>1354.12</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1382.3</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -4759,9 +4771,12 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" si="5"/>
-        <v>1.3212580321876999E-2</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>-2.1517420267641585E-3</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.4626023144228126E-2</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -4773,17 +4788,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C329E3-0559-4212-8B55-09CC7C218F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C41C6-E5D4-430D-9076-27EE9FB44269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1540,9 +1540,11 @@
         <v>40.909999999999997</v>
       </c>
       <c r="F28" s="7">
-        <v>41.14</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>41.29</v>
+      </c>
+      <c r="G28" s="7">
+        <v>40.56</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2032,9 +2034,12 @@
       </c>
       <c r="F38" s="10">
         <f t="shared" si="8"/>
-        <v>-1.01058710298364E-2</v>
-      </c>
-      <c r="G38" s="10"/>
+        <v>-6.4966313763235028E-3</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.8823529411763387E-3</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -2045,16 +2050,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2071,7 +2076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2081,54 +2086,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2137,10 +2142,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2149,10 +2154,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2161,10 +2166,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2173,10 +2178,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2185,10 +2190,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2197,10 +2202,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2928,7 +2933,9 @@
       <c r="F29" s="19">
         <v>33.6</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19">
+        <v>33.299999999999997</v>
+      </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -3471,7 +3478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3482,114 +3489,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3598,10 +3605,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4327,9 +4334,11 @@
         <v>1354.12</v>
       </c>
       <c r="F29" s="11">
-        <v>1382.3</v>
-      </c>
-      <c r="G29" s="11"/>
+        <v>1387.34</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1350.65</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -4775,9 +4784,12 @@
       </c>
       <c r="F38" s="10">
         <f t="shared" si="5"/>
-        <v>-2.4626023144228126E-2</v>
-      </c>
-      <c r="G38" s="10"/>
+        <v>-2.1069714930849637E-2</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.7680514342235387E-2</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -4788,17 +4800,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C41C6-E5D4-430D-9076-27EE9FB44269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A002AC9-A644-4D28-8984-3C3934C8C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="405" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1543,9 +1543,11 @@
         <v>41.29</v>
       </c>
       <c r="G28" s="7">
-        <v>40.56</v>
-      </c>
-      <c r="H28" s="7"/>
+        <v>40.71</v>
+      </c>
+      <c r="H28" s="7">
+        <v>41.1</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2038,9 +2040,12 @@
       </c>
       <c r="G38" s="10">
         <f t="shared" si="8"/>
-        <v>-5.8823529411763387E-3</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>-2.2058823529410576E-3</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0941869021338153E-3</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2050,16 +2055,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2076,7 +2081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2086,54 +2091,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2142,10 +2147,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2154,10 +2159,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2166,10 +2171,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2178,10 +2183,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2190,10 +2195,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2202,10 +2207,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2936,7 +2941,9 @@
       <c r="G29" s="19">
         <v>33.299999999999997</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19">
+        <v>33.299999999999997</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -3440,8 +3447,14 @@
         <f t="shared" si="6"/>
         <v>-1.4662756598240456E-2</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1869436201780603E-2</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.4792899408283988E-2</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -3478,7 +3491,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3489,114 +3502,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3605,10 +3618,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4337,9 +4350,11 @@
         <v>1387.34</v>
       </c>
       <c r="G29" s="11">
-        <v>1350.65</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>1355.64</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1368.63</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -4788,9 +4803,12 @@
       </c>
       <c r="G38" s="10">
         <f t="shared" si="5"/>
-        <v>-1.7680514342235387E-2</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>-1.4051317856519363E-2</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="5"/>
+        <v>-6.8213319013372686E-3</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -4800,17 +4818,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A002AC9-A644-4D28-8984-3C3934C8C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D0AB-0676-4C52-AFB8-54672BFD52CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="405" windowWidth="19080" windowHeight="10530" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="315" windowWidth="16875" windowHeight="10425" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -684,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1546,9 +1546,11 @@
         <v>40.71</v>
       </c>
       <c r="H28" s="7">
-        <v>41.1</v>
-      </c>
-      <c r="I28" s="7"/>
+        <v>41.07</v>
+      </c>
+      <c r="I28" s="7">
+        <v>41.17</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2044,9 +2046,12 @@
       </c>
       <c r="H38" s="10">
         <f t="shared" si="8"/>
-        <v>8.0941869021338153E-3</v>
-      </c>
-      <c r="I38" s="10"/>
+        <v>7.3583517292126199E-3</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.4552510308026845E-3</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2055,16 +2060,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2081,7 +2086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2091,54 +2096,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2147,10 +2152,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2159,10 +2164,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2171,10 +2176,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2183,10 +2188,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2195,10 +2200,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2207,10 +2212,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2944,7 +2949,9 @@
       <c r="H29" s="19">
         <v>33.299999999999997</v>
       </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="19">
+        <v>33.299999999999997</v>
+      </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -3455,7 +3462,10 @@
         <f t="shared" si="6"/>
         <v>-1.4792899408283988E-2</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="10">
+        <f t="shared" si="6"/>
+        <v>-3.4782608695652306E-2</v>
+      </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -3489,9 +3499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3502,114 +3512,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3618,10 +3628,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4353,9 +4363,11 @@
         <v>1355.64</v>
       </c>
       <c r="H29" s="11">
-        <v>1368.63</v>
-      </c>
-      <c r="I29" s="11"/>
+        <v>1367.3</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1370.96</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -4807,9 +4819,12 @@
       </c>
       <c r="H38" s="10">
         <f t="shared" si="5"/>
-        <v>-6.8213319013372686E-3</v>
-      </c>
-      <c r="I38" s="10"/>
+        <v>-7.7864777980160005E-3</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.6191333202103437E-2</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -4818,17 +4833,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D0AB-0676-4C52-AFB8-54672BFD52CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B03847-50DE-4126-81D9-717F34E377FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="315" windowWidth="16875" windowHeight="10425" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="315" windowWidth="16875" windowHeight="10425" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -684,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1549,9 +1549,11 @@
         <v>41.07</v>
       </c>
       <c r="I28" s="7">
-        <v>41.17</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>41.16</v>
+      </c>
+      <c r="J28" s="7">
+        <v>41.27</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2050,9 +2052,12 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" si="8"/>
-        <v>-1.4552510308026845E-3</v>
-      </c>
-      <c r="J38" s="10"/>
+        <v>-1.6977928692699651E-3</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1281860925513651E-2</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2060,16 +2065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2086,7 +2091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2096,54 +2101,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2152,10 +2157,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2164,10 +2169,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2176,10 +2181,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2188,10 +2193,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2200,10 +2205,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2212,10 +2217,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2952,7 +2957,9 @@
       <c r="I29" s="19">
         <v>33.299999999999997</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="19">
+        <v>33.299999999999997</v>
+      </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
@@ -3466,7 +3473,10 @@
         <f t="shared" si="6"/>
         <v>-3.4782608695652306E-2</v>
       </c>
-      <c r="J39" s="10"/>
+      <c r="J39" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1869436201780603E-2</v>
+      </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -3499,9 +3509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3512,114 +3522,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3628,10 +3638,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4366,9 +4376,11 @@
         <v>1367.3</v>
       </c>
       <c r="I29" s="11">
-        <v>1370.96</v>
-      </c>
-      <c r="J29" s="11"/>
+        <v>1370.63</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1374.29</v>
+      </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4823,9 +4835,12 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" si="5"/>
-        <v>-3.6191333202103437E-2</v>
-      </c>
-      <c r="J38" s="10"/>
+        <v>-3.6423328927757903E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="5"/>
+        <v>9.1568636089938149E-3</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4833,17 +4848,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B03847-50DE-4126-81D9-717F34E377FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553897D2-75D4-4BC5-89A1-139ADF62E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="315" windowWidth="16875" windowHeight="10425" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="660" windowWidth="19815" windowHeight="10260" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -685,8 +685,8 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1552,9 +1552,11 @@
         <v>41.16</v>
       </c>
       <c r="J28" s="7">
-        <v>41.27</v>
-      </c>
-      <c r="K28" s="7"/>
+        <v>41.43</v>
+      </c>
+      <c r="K28" s="7">
+        <v>42.3</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="12"/>
@@ -2056,25 +2058,28 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" si="8"/>
-        <v>2.1281860925513651E-2</v>
-      </c>
-      <c r="K38" s="10"/>
+        <v>2.5241276911655675E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8696498054474606E-2</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2091,7 +2096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2101,54 +2106,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2157,10 +2162,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2169,10 +2174,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2181,10 +2186,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2193,10 +2198,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2205,10 +2210,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2217,10 +2222,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2960,7 +2965,9 @@
       <c r="J29" s="19">
         <v>33.299999999999997</v>
       </c>
-      <c r="K29" s="19"/>
+      <c r="K29" s="19">
+        <v>33.9</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="20"/>
@@ -3477,7 +3484,10 @@
         <f t="shared" si="6"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="10">
+        <f t="shared" si="6"/>
+        <v>5.9347181008901906E-3</v>
+      </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="14"/>
@@ -3511,7 +3521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3522,114 +3532,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3638,10 +3648,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4379,9 +4389,11 @@
         <v>1370.63</v>
       </c>
       <c r="J29" s="11">
-        <v>1374.29</v>
-      </c>
-      <c r="K29" s="11"/>
+        <v>1379.62</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1433.97</v>
+      </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="16"/>
@@ -4839,26 +4851,29 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" si="5"/>
-        <v>9.1568636089938149E-3</v>
-      </c>
-      <c r="K38" s="10"/>
+        <v>1.3070743563760256E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4804508782311228E-2</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553897D2-75D4-4BC5-89A1-139ADF62E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5FA095-5279-44D2-BEF7-16E8755E379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="660" windowWidth="19815" windowHeight="10260" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19815" windowHeight="10260" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -319,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1555,9 +1555,11 @@
         <v>41.43</v>
       </c>
       <c r="K28" s="7">
-        <v>42.3</v>
-      </c>
-      <c r="L28" s="7"/>
+        <v>42.33</v>
+      </c>
+      <c r="L28" s="7">
+        <v>41.8</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="12"/>
     </row>
@@ -2062,24 +2064,27 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="8"/>
-        <v>2.8696498054474606E-2</v>
-      </c>
-      <c r="L38" s="10"/>
+        <v>2.9426070038910623E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.9556650246305383E-2</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2096,7 +2101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2106,54 +2111,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2162,10 +2167,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2174,10 +2179,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2186,10 +2191,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2198,10 +2203,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2210,10 +2215,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2222,10 +2227,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2968,7 +2973,9 @@
       <c r="K29" s="19">
         <v>33.9</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="19">
+        <v>33.5</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="20"/>
     </row>
@@ -3488,7 +3495,10 @@
         <f t="shared" si="6"/>
         <v>5.9347181008901906E-3</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10">
+        <f t="shared" si="6"/>
+        <v>-5.9347181008903016E-3</v>
+      </c>
       <c r="M39" s="10"/>
       <c r="N39" s="14"/>
     </row>
@@ -3521,7 +3531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3532,114 +3542,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3648,10 +3658,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4392,9 +4402,11 @@
         <v>1379.62</v>
       </c>
       <c r="K29" s="11">
-        <v>1433.97</v>
-      </c>
-      <c r="L29" s="11"/>
+        <v>1434.99</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1400.3</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="16"/>
     </row>
@@ -4855,25 +4867,28 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="5"/>
-        <v>3.4804508782311228E-2</v>
-      </c>
-      <c r="L38" s="10"/>
+        <v>3.5540577597529044E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="5"/>
+        <v>2.3446521758196726E-2</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5FA095-5279-44D2-BEF7-16E8755E379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF058E0-ADB4-4672-A51C-6D4E6B0EDBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="19815" windowHeight="10260" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1558,10 +1558,15 @@
         <v>42.33</v>
       </c>
       <c r="L28" s="7">
-        <v>41.8</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="12"/>
+        <v>41.76</v>
+      </c>
+      <c r="M28" s="7">
+        <v>41.89</v>
+      </c>
+      <c r="N28" s="12">
+        <f>AVERAGE(B28:M28)</f>
+        <v>41.431666666666665</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N29" s="13"/>
@@ -2068,23 +2073,29 @@
       </c>
       <c r="L38" s="10">
         <f t="shared" si="8"/>
-        <v>2.9556650246305383E-2</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.2455455211130237E-2</v>
+      </c>
+      <c r="N38" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6977581410571041E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2100,8 +2111,8 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2111,54 +2122,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2167,10 +2178,10 @@
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2179,10 +2190,10 @@
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2191,10 +2202,10 @@
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2203,10 +2214,10 @@
       <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2215,10 +2226,10 @@
       <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2227,10 +2238,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2974,10 +2985,15 @@
         <v>33.9</v>
       </c>
       <c r="L29" s="19">
+        <v>33.4</v>
+      </c>
+      <c r="M29" s="19">
         <v>33.5</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
+      <c r="N29" s="20">
+        <f>AVERAGE(B29:M29)</f>
+        <v>33.43333333333333</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -3497,10 +3513,16 @@
       </c>
       <c r="L39" s="10">
         <f t="shared" si="6"/>
+        <v>-8.9020771513353969E-3</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="6"/>
         <v>-5.9347181008903016E-3</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="14"/>
+      <c r="N39" s="14">
+        <f t="shared" si="6"/>
+        <v>-8.158220024721885E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3531,7 +3553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3542,114 +3564,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3658,10 +3680,10 @@
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4405,10 +4427,15 @@
         <v>1434.99</v>
       </c>
       <c r="L29" s="11">
-        <v>1400.3</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="16"/>
+        <v>1394.78</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1403.32</v>
+      </c>
+      <c r="N29" s="16">
+        <f>AVERAGE(B29:M29)</f>
+        <v>1385.2566666666664</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
@@ -4871,24 +4898,30 @@
       </c>
       <c r="L38" s="10">
         <f t="shared" si="5"/>
-        <v>2.3446521758196726E-2</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14"/>
+        <v>1.9412082852172885E-2</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="5"/>
+        <v>1.6390355546864077E-2</v>
+      </c>
+      <c r="N38" s="14">
+        <f t="shared" si="5"/>
+        <v>8.6489884433398334E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF058E0-ADB4-4672-A51C-6D4E6B0EDBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA921C-4C95-4006-9102-0F5A2B51C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19815" windowHeight="10260" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="255" windowWidth="15210" windowHeight="9795" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -161,7 +161,10 @@
     <t>% Change 2021-2022</t>
   </si>
   <si>
-    <t>2007 to 2022</t>
+    <t>% Change 2022-2023</t>
+  </si>
+  <si>
+    <t>2007 to 2023</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -313,6 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -682,11 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -855,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="13.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2007</v>
       </c>
@@ -899,7 +902,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -943,7 +946,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2009</v>
       </c>
@@ -987,7 +990,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2010</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2011</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2013</v>
       </c>
@@ -1375,17 +1378,17 @@
         <v>36.56</v>
       </c>
       <c r="K24" s="7">
-        <v>36.380000000000003</v>
+        <v>36.39</v>
       </c>
       <c r="L24" s="7">
-        <v>36.6</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="M24" s="7">
         <v>37.28</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" si="0"/>
-        <v>36.225833333333334</v>
+        <v>36.228333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1414,23 +1417,23 @@
         <v>37.22</v>
       </c>
       <c r="I25" s="7">
-        <v>37.58</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="J25" s="7">
         <v>38.200000000000003</v>
       </c>
       <c r="K25" s="7">
-        <v>37.76</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L25" s="7">
-        <v>38.06</v>
+        <v>38.1</v>
       </c>
       <c r="M25" s="7">
         <v>38.81</v>
       </c>
       <c r="N25" s="12">
         <f>AVERAGE(B25:M25)</f>
-        <v>37.714166666666664</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1468,7 @@
         <v>38.68</v>
       </c>
       <c r="K26" s="7">
-        <v>38.68</v>
+        <v>38.64</v>
       </c>
       <c r="L26" s="7">
         <v>39.57</v>
@@ -1475,7 +1478,7 @@
       </c>
       <c r="N26" s="12">
         <f>AVERAGE(B26:M26)</f>
-        <v>38.846666666666671</v>
+        <v>38.843333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1510,17 +1513,17 @@
         <v>40.409999999999997</v>
       </c>
       <c r="K27" s="7">
-        <v>41.12</v>
+        <v>41.09</v>
       </c>
       <c r="L27" s="7">
-        <v>40.6</v>
+        <v>40.58</v>
       </c>
       <c r="M27" s="7">
         <v>40.97</v>
       </c>
       <c r="N27" s="12">
         <f>AVERAGE(B27:M27)</f>
-        <v>40.74</v>
+        <v>40.735833333333325</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -1555,534 +1558,575 @@
         <v>41.43</v>
       </c>
       <c r="K28" s="7">
-        <v>42.33</v>
+        <v>42.34</v>
       </c>
       <c r="L28" s="7">
-        <v>41.76</v>
+        <v>41.71</v>
       </c>
       <c r="M28" s="7">
-        <v>41.89</v>
+        <v>41.79</v>
       </c>
       <c r="N28" s="12">
         <f>AVERAGE(B28:M28)</f>
-        <v>41.431666666666665</v>
+        <v>41.419999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N29" s="13"/>
+      <c r="A29" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="7">
+        <v>42.49</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10">
-        <f t="shared" ref="B30:N30" si="1">B20/B19-1</f>
+      <c r="B31" s="10">
+        <f>B20/B19-1</f>
         <v>9.3341630367138606E-4</v>
       </c>
-      <c r="C30" s="10">
-        <f t="shared" si="1"/>
+      <c r="C31" s="10">
+        <f>C20/C19-1</f>
         <v>2.1929824561403466E-2</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" si="1"/>
+      <c r="D31" s="10">
+        <f>D20/D19-1</f>
         <v>2.5165146272412953E-2</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" si="1"/>
+      <c r="E31" s="10">
+        <f>E20/E19-1</f>
         <v>1.6604010025062621E-2</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="1"/>
+      <c r="F31" s="10">
+        <f>F20/F19-1</f>
         <v>2.0170185943901631E-2</v>
       </c>
-      <c r="G30" s="10">
-        <f t="shared" si="1"/>
+      <c r="G31" s="10">
+        <f>G20/G19-1</f>
         <v>2.3306401491609785E-2</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="1"/>
+      <c r="H31" s="10">
+        <f>H20/H19-1</f>
         <v>1.1533665835411711E-2</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="1"/>
+      <c r="I31" s="10">
+        <f>I20/I19-1</f>
         <v>1.0341585709808809E-2</v>
       </c>
-      <c r="J30" s="10">
-        <f t="shared" si="1"/>
+      <c r="J31" s="10">
+        <f>J20/J19-1</f>
         <v>5.5624227441284368E-3</v>
       </c>
-      <c r="K30" s="10">
-        <f t="shared" si="1"/>
+      <c r="K31" s="10">
+        <f>K20/K19-1</f>
         <v>3.0701754385964897E-2</v>
       </c>
-      <c r="L30" s="10">
-        <f t="shared" si="1"/>
+      <c r="L31" s="10">
+        <f>L20/L19-1</f>
         <v>5.3125000000000089E-2</v>
       </c>
-      <c r="M30" s="10">
-        <f t="shared" si="1"/>
+      <c r="M31" s="10">
+        <f>M20/M19-1</f>
         <v>1.7554665845395778E-2</v>
       </c>
-      <c r="N30" s="14">
-        <f t="shared" si="1"/>
+      <c r="N31" s="14">
+        <f>N20/N19-1</f>
         <v>1.9558884727423953E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10">
-        <f t="shared" ref="B31:N31" si="2">B21/B20-1</f>
+      <c r="B32" s="10">
+        <f>B21/B20-1</f>
         <v>4.4451352191482663E-2</v>
       </c>
-      <c r="C31" s="10">
-        <f t="shared" si="2"/>
+      <c r="C32" s="10">
+        <f>C21/C20-1</f>
         <v>4.1998773758430641E-2</v>
       </c>
-      <c r="D31" s="10">
-        <f t="shared" si="2"/>
+      <c r="D32" s="10">
+        <f>D21/D20-1</f>
         <v>4.1730592206198125E-2</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="2"/>
+      <c r="E32" s="10">
+        <f>E21/E20-1</f>
         <v>4.0061633281972098E-2</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="2"/>
+      <c r="F32" s="10">
+        <f>F21/F20-1</f>
         <v>3.2746370095767752E-2</v>
       </c>
-      <c r="G31" s="10">
-        <f t="shared" si="2"/>
+      <c r="G32" s="10">
+        <f>G21/G20-1</f>
         <v>1.305800182204675E-2</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="2"/>
+      <c r="H32" s="10">
+        <f>H21/H20-1</f>
         <v>2.7734976887519247E-2</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="2"/>
+      <c r="I32" s="10">
+        <f>I21/I20-1</f>
         <v>5.241935483870952E-2</v>
       </c>
-      <c r="J31" s="10">
-        <f t="shared" si="2"/>
+      <c r="J32" s="10">
+        <f>J21/J20-1</f>
         <v>3.3189920098340542E-2</v>
       </c>
-      <c r="K31" s="10">
-        <f t="shared" si="2"/>
+      <c r="K32" s="10">
+        <f>K21/K20-1</f>
         <v>1.9452887537994012E-2</v>
       </c>
-      <c r="L31" s="10">
-        <f t="shared" si="2"/>
+      <c r="L32" s="10">
+        <f>L21/L20-1</f>
         <v>1.6023738872403603E-2</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" si="2"/>
+      <c r="M32" s="10">
+        <f>M21/M20-1</f>
         <v>1.3922518159806385E-2</v>
       </c>
-      <c r="N31" s="14">
-        <f t="shared" si="2"/>
+      <c r="N32" s="14">
+        <f>N21/N20-1</f>
         <v>3.1275510204081813E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="3">B22/B21-1</f>
+      <c r="B33" s="10">
+        <f>B22/B21-1</f>
         <v>7.7380952380952106E-3</v>
       </c>
-      <c r="C32" s="10">
-        <f t="shared" si="3"/>
+      <c r="C33" s="10">
+        <f>C22/C21-1</f>
         <v>4.1188584877904777E-3</v>
       </c>
-      <c r="D32" s="10">
-        <f t="shared" si="3"/>
+      <c r="D33" s="10">
+        <f>D22/D21-1</f>
         <v>-7.9528718703977264E-3</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="3"/>
+      <c r="E33" s="10">
+        <f>E22/E21-1</f>
         <v>-1.1555555555555541E-2</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="3"/>
+      <c r="F33" s="10">
+        <f>F22/F21-1</f>
         <v>1.525575830092718E-2</v>
       </c>
-      <c r="G32" s="10">
-        <f t="shared" si="3"/>
+      <c r="G33" s="10">
+        <f>G22/G21-1</f>
         <v>-4.4964028776978138E-3</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="3"/>
+      <c r="H33" s="10">
+        <f>H22/H21-1</f>
         <v>8.9955022488754643E-3</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="3"/>
+      <c r="I33" s="10">
+        <f>I22/I21-1</f>
         <v>1.2967875036840493E-2</v>
       </c>
-      <c r="J32" s="10">
-        <f t="shared" si="3"/>
+      <c r="J33" s="10">
+        <f>J22/J21-1</f>
         <v>1.3384889946460587E-2</v>
       </c>
-      <c r="K32" s="10">
-        <f t="shared" si="3"/>
+      <c r="K33" s="10">
+        <f>K22/K21-1</f>
         <v>3.4585569469290478E-2</v>
       </c>
-      <c r="L32" s="10">
-        <f t="shared" si="3"/>
+      <c r="L33" s="10">
+        <f>L22/L21-1</f>
         <v>-3.5046728971963592E-3</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" si="3"/>
+      <c r="M33" s="10">
+        <f>M22/M21-1</f>
         <v>1.4029850746268613E-2</v>
       </c>
-      <c r="N32" s="14">
-        <f t="shared" si="3"/>
+      <c r="N33" s="14">
+        <f>N22/N21-1</f>
         <v>6.9262355909562867E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:N33" si="4">B23/B22-1</f>
+      <c r="B34" s="10">
+        <f>B23/B22-1</f>
         <v>3.7212049616066167E-2</v>
       </c>
-      <c r="C33" s="10">
-        <f t="shared" si="4"/>
+      <c r="C34" s="10">
+        <f>C23/C22-1</f>
         <v>2.6369762672135977E-2</v>
       </c>
-      <c r="D33" s="10">
-        <f t="shared" si="4"/>
+      <c r="D34" s="10">
+        <f>D23/D22-1</f>
         <v>3.6817102137767233E-2</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="4"/>
+      <c r="E34" s="10">
+        <f>E23/E22-1</f>
         <v>6.6247002398081456E-2</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="4"/>
+      <c r="F34" s="10">
+        <f>F23/F22-1</f>
         <v>2.7990571596935965E-2</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" si="4"/>
+      <c r="G34" s="10">
+        <f>G23/G22-1</f>
         <v>4.5769346582354542E-2</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="4"/>
+      <c r="H34" s="10">
+        <f>H23/H22-1</f>
         <v>5.2005943536404198E-2</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="4"/>
+      <c r="I34" s="10">
+        <f>I23/I22-1</f>
         <v>6.4009310445156675E-3</v>
       </c>
-      <c r="J33" s="10">
-        <f t="shared" si="4"/>
+      <c r="J34" s="10">
+        <f>J23/J22-1</f>
         <v>2.3481068388611526E-2</v>
       </c>
-      <c r="K33" s="10">
-        <f t="shared" si="4"/>
+      <c r="K34" s="10">
+        <f>K23/K22-1</f>
         <v>2.7377521613832778E-2</v>
       </c>
-      <c r="L33" s="10">
-        <f t="shared" si="4"/>
+      <c r="L34" s="10">
+        <f>L23/L22-1</f>
         <v>3.4290738569753954E-2</v>
       </c>
-      <c r="M33" s="10">
-        <f t="shared" si="4"/>
+      <c r="M34" s="10">
+        <f>M23/M22-1</f>
         <v>4.7100382690609344E-2</v>
       </c>
-      <c r="N33" s="14">
-        <f t="shared" si="4"/>
+      <c r="N34" s="14">
+        <f>N23/N22-1</f>
         <v>3.579324915245885E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:N34" si="5">B24/B23-1</f>
+      <c r="B35" s="10">
+        <f>B24/B23-1</f>
         <v>1.9646924829157308E-2</v>
       </c>
-      <c r="C34" s="10">
-        <f t="shared" si="5"/>
+      <c r="C35" s="10">
+        <f>C24/C23-1</f>
         <v>2.4550385383956597E-2</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="5"/>
+      <c r="D35" s="10">
+        <f>D24/D23-1</f>
         <v>2.4914089347078949E-2</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="5"/>
+      <c r="E35" s="10">
+        <f>E24/E23-1</f>
         <v>2.2490863086870982E-2</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="5"/>
+      <c r="F35" s="10">
+        <f>F24/F23-1</f>
         <v>2.407566638005143E-2</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" si="5"/>
+      <c r="G35" s="10">
+        <f>G24/G23-1</f>
         <v>2.879355024474517E-2</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="5"/>
+      <c r="H35" s="10">
+        <f>H24/H23-1</f>
         <v>3.446327683615813E-2</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="5"/>
+      <c r="I35" s="10">
+        <f>I24/I23-1</f>
         <v>3.9317721884937873E-2</v>
       </c>
-      <c r="J34" s="10">
-        <f t="shared" si="5"/>
+      <c r="J35" s="10">
+        <f>J24/J23-1</f>
         <v>4.8465729853742534E-2</v>
       </c>
-      <c r="K34" s="10">
-        <f t="shared" si="5"/>
-        <v>2.047685834502122E-2</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="5"/>
-        <v>3.7120997449702431E-2</v>
-      </c>
-      <c r="M34" s="10">
-        <f t="shared" si="5"/>
+      <c r="K35" s="10">
+        <f>K24/K23-1</f>
+        <v>2.0757363253856909E-2</v>
+      </c>
+      <c r="L35" s="10">
+        <f>L24/L23-1</f>
+        <v>3.7687730235194117E-2</v>
+      </c>
+      <c r="M35" s="10">
+        <f>M24/M23-1</f>
         <v>4.8074219848186717E-2</v>
       </c>
-      <c r="N34" s="14">
-        <f t="shared" si="5"/>
-        <v>3.1022460451106459E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:N35" si="6">B25/B24-1</f>
-        <v>4.4121753700083755E-2</v>
-      </c>
-      <c r="C35" s="10">
-        <f t="shared" si="6"/>
-        <v>4.931735859570896E-2</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="6"/>
-        <v>3.9675887119307029E-2</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6945284575199402E-2</v>
-      </c>
-      <c r="F35" s="10">
-        <f t="shared" si="6"/>
-        <v>4.534005037783384E-2</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="6"/>
-        <v>6.2972292191435741E-2</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="6"/>
-        <v>1.6384489350081965E-2</v>
-      </c>
-      <c r="I35" s="10">
-        <f t="shared" si="6"/>
-        <v>4.5340751043115413E-2</v>
-      </c>
-      <c r="J35" s="10">
-        <f t="shared" si="6"/>
-        <v>4.48577680525164E-2</v>
-      </c>
-      <c r="K35" s="10">
-        <f t="shared" si="6"/>
-        <v>3.793293018141819E-2</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="6"/>
-        <v>3.9890710382513683E-2</v>
-      </c>
-      <c r="M35" s="10">
-        <f t="shared" si="6"/>
-        <v>4.1040772532188852E-2</v>
-      </c>
       <c r="N35" s="14">
-        <f t="shared" si="6"/>
-        <v>4.1084861171815534E-2</v>
+        <f>N24/N23-1</f>
+        <v>3.1093612883333677E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="10">
-        <f t="shared" ref="B36:N36" si="7">B26/B25-1</f>
-        <v>2.4338058304359311E-2</v>
+        <f>B25/B24-1</f>
+        <v>4.4121753700083755E-2</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="7"/>
-        <v>3.1598513011152463E-2</v>
+        <f>C25/C24-1</f>
+        <v>4.931735859570896E-2</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="7"/>
-        <v>3.2786885245901676E-2</v>
+        <f>D25/D24-1</f>
+        <v>3.9675887119307029E-2</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="7"/>
-        <v>7.3092369477911534E-2</v>
+        <f>E25/E24-1</f>
+        <v>2.6945284575199402E-2</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="7"/>
-        <v>2.8915662650602414E-2</v>
+        <f>F25/F24-1</f>
+        <v>4.534005037783384E-2</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="7"/>
-        <v>3.4228541337546492E-3</v>
+        <f>G25/G24-1</f>
+        <v>6.2972292191435741E-2</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="7"/>
-        <v>2.9554003224073089E-2</v>
+        <f>H25/H24-1</f>
+        <v>1.6384489350081965E-2</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="7"/>
-        <v>4.3374135178286366E-2</v>
+        <f>I25/I24-1</f>
+        <v>4.1724617524339314E-2</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="7"/>
-        <v>1.2565445026177846E-2</v>
+        <f>J25/J24-1</f>
+        <v>4.48577680525164E-2</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="7"/>
-        <v>2.4364406779661119E-2</v>
+        <f>K25/K24-1</f>
+        <v>3.8746908491343657E-2</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="7"/>
-        <v>3.9674198633736113E-2</v>
+        <f>L25/L24-1</f>
+        <v>4.0415073730202256E-2</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" si="7"/>
-        <v>1.7778922958000543E-2</v>
+        <f>M25/M24-1</f>
+        <v>4.1040772532188852E-2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="7"/>
-        <v>3.0028503877853385E-2</v>
+        <f>N25/N24-1</f>
+        <v>4.0898008004784492E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" ref="B37:N38" si="8">B27/B26-1</f>
-        <v>5.2219321148825104E-2</v>
+        <f>B26/B25-1</f>
+        <v>2.4338058304359311E-2</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="8"/>
-        <v>3.9897039897039743E-2</v>
+        <f>C26/C25-1</f>
+        <v>3.1598513011152463E-2</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="8"/>
-        <v>4.3195420244600768E-2</v>
+        <f>D26/D25-1</f>
+        <v>3.2786885245901676E-2</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="8"/>
-        <v>1.3722554890219563E-2</v>
+        <f>E26/E25-1</f>
+        <v>7.3092369477911534E-2</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="8"/>
-        <v>8.1446786364819168E-2</v>
+        <f>F26/F25-1</f>
+        <v>2.8915662650602414E-2</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="8"/>
-        <v>7.0585148255051022E-2</v>
+        <f>G26/G25-1</f>
+        <v>3.4228541337546492E-3</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="8"/>
-        <v>6.3935281837160796E-2</v>
+        <f>H26/H25-1</f>
+        <v>2.9554003224073089E-2</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="8"/>
-        <v>5.1517470033154655E-2</v>
+        <f>I26/I25-1</f>
+        <v>4.6995994659545959E-2</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="8"/>
-        <v>4.4725956566701086E-2</v>
+        <f>J26/J25-1</f>
+        <v>1.2565445026177846E-2</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="8"/>
-        <v>6.3081695966907825E-2</v>
+        <f>K26/K25-1</f>
+        <v>2.2222222222222365E-2</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="8"/>
-        <v>2.6029820571139783E-2</v>
+        <f>L26/L25-1</f>
+        <v>3.8582677165354351E-2</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="8"/>
-        <v>3.7215189873417653E-2</v>
+        <f>M26/M25-1</f>
+        <v>1.7778922958000543E-2</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="8"/>
-        <v>4.8738630513128545E-2</v>
+        <f>N26/N25-1</f>
+        <v>3.0053920268717338E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="10">
+        <f>B27/B26-1</f>
+        <v>5.2219321148825104E-2</v>
+      </c>
+      <c r="C38" s="10">
+        <f>C27/C26-1</f>
+        <v>3.9897039897039743E-2</v>
+      </c>
+      <c r="D38" s="10">
+        <f>D27/D26-1</f>
+        <v>4.3195420244600768E-2</v>
+      </c>
+      <c r="E38" s="10">
+        <f>E27/E26-1</f>
+        <v>1.3722554890219563E-2</v>
+      </c>
+      <c r="F38" s="10">
+        <f>F27/F26-1</f>
+        <v>8.1446786364819168E-2</v>
+      </c>
+      <c r="G38" s="10">
+        <f>G27/G26-1</f>
+        <v>7.0585148255051022E-2</v>
+      </c>
+      <c r="H38" s="10">
+        <f>H27/H26-1</f>
+        <v>6.3935281837160796E-2</v>
+      </c>
+      <c r="I38" s="10">
+        <f>I27/I26-1</f>
+        <v>5.1517470033154655E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <f>J27/J26-1</f>
+        <v>4.4725956566701086E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <f>K27/K26-1</f>
+        <v>6.3405797101449446E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <f>L27/L26-1</f>
+        <v>2.5524387161991458E-2</v>
+      </c>
+      <c r="M38" s="10">
+        <f>M27/M26-1</f>
+        <v>3.7215189873417653E-2</v>
+      </c>
+      <c r="N38" s="14">
+        <f>N27/N26-1</f>
+        <v>4.872135930661603E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <f>B28/B27-1</f>
         <v>3.8709677419354938E-2</v>
       </c>
-      <c r="C38" s="10">
-        <f t="shared" si="8"/>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:N40" si="1">C28/C27-1</f>
         <v>2.4257425742574279E-2</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="8"/>
+      <c r="D39" s="10">
+        <f t="shared" si="1"/>
         <v>3.2427039161885718E-2</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="8"/>
+      <c r="E39" s="10">
+        <f t="shared" si="1"/>
         <v>6.8914595126752243E-3</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="8"/>
+      <c r="F39" s="10">
+        <f t="shared" si="1"/>
         <v>-6.4966313763235028E-3</v>
       </c>
-      <c r="G38" s="10">
-        <f t="shared" si="8"/>
+      <c r="G39" s="10">
+        <f t="shared" si="1"/>
         <v>-2.2058823529410576E-3</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="8"/>
+      <c r="H39" s="10">
+        <f t="shared" si="1"/>
         <v>7.3583517292126199E-3</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="8"/>
+      <c r="I39" s="10">
+        <f t="shared" si="1"/>
         <v>-1.6977928692699651E-3</v>
       </c>
-      <c r="J38" s="10">
-        <f t="shared" si="8"/>
+      <c r="J39" s="10">
+        <f t="shared" si="1"/>
         <v>2.5241276911655675E-2</v>
       </c>
-      <c r="K38" s="10">
-        <f t="shared" si="8"/>
-        <v>2.9426070038910623E-2</v>
-      </c>
-      <c r="L38" s="10">
-        <f t="shared" si="8"/>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="M38" s="10">
-        <f t="shared" si="8"/>
-        <v>2.2455455211130237E-2</v>
-      </c>
-      <c r="N38" s="14">
-        <f t="shared" si="8"/>
-        <v>1.6977581410571041E-2</v>
-      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="1"/>
+        <v>3.042102701387206E-2</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="1"/>
+        <v>2.7846229669788114E-2</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0014644862094144E-2</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="1"/>
+        <v>1.6795204876951075E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="10">
+        <f>B29/B28-1</f>
+        <v>1.5050167224080369E-2</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2108,11 +2152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2122,126 +2165,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2287,7 +2330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2007</v>
       </c>
@@ -2331,7 +2374,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -2375,7 +2418,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -2419,7 +2462,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2010</v>
       </c>
@@ -2463,7 +2506,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2011</v>
       </c>
@@ -2507,7 +2550,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -2850,14 +2893,14 @@
         <v>33.4</v>
       </c>
       <c r="L26" s="19">
-        <v>33.299999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="M26" s="19">
         <v>34.1</v>
       </c>
       <c r="N26" s="20">
         <f>AVERAGE(B26:M26)</f>
-        <v>33.783333333333339</v>
+        <v>33.791666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2892,17 +2935,17 @@
         <v>33.700000000000003</v>
       </c>
       <c r="K27" s="19">
-        <v>33.6</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L27" s="19">
-        <v>34.200000000000003</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="M27" s="19">
         <v>33.5</v>
       </c>
       <c r="N27" s="20">
         <f>AVERAGE(B27:M27)</f>
-        <v>33.55833333333333</v>
+        <v>33.574999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2937,17 +2980,17 @@
         <v>33.700000000000003</v>
       </c>
       <c r="K28" s="19">
-        <v>33.700000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="L28" s="19">
-        <v>33.700000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="M28" s="19">
         <v>33.700000000000003</v>
       </c>
       <c r="N28" s="20">
         <f>AVERAGE(B28:M28)</f>
-        <v>33.708333333333329</v>
+        <v>33.69166666666667</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -2982,22 +3025,26 @@
         <v>33.299999999999997</v>
       </c>
       <c r="K29" s="19">
-        <v>33.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L29" s="19">
-        <v>33.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M29" s="19">
-        <v>33.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="N29" s="20">
         <f>AVERAGE(B29:M29)</f>
-        <v>33.43333333333333</v>
+        <v>33.391666666666673</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="19">
+        <v>33.5</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3009,520 +3056,557 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="10">
-        <f t="shared" ref="B31:N31" si="0">B21/B20-1</f>
+      <c r="B32" s="10">
+        <f t="shared" ref="B32:N32" si="0">B21/B20-1</f>
         <v>-1.1661807580174877E-2</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>5.8309037900874383E-3</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>-8.5470085470086277E-3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>-8.6705202312139518E-3</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <f t="shared" si="0"/>
         <v>-5.7636887608070175E-3</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <f t="shared" si="0"/>
         <v>-1.7191977077363974E-2</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <f t="shared" si="0"/>
         <v>-2.9325513196480912E-3</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L32" s="10">
         <f t="shared" si="0"/>
         <v>1.4619883040935644E-2</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M32" s="10">
         <f t="shared" si="0"/>
         <v>-1.7341040462427793E-2</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <f t="shared" si="0"/>
         <v>-5.7971014492754769E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="1">B22/B21-1</f>
+      <c r="B33" s="10">
+        <f t="shared" ref="B33:N33" si="1">B22/B21-1</f>
         <v>0</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="1"/>
         <v>2.9069767441860517E-3</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="1"/>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="1"/>
         <v>-1.4367816091954033E-2</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="1"/>
         <v>1.449275362318847E-2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <f t="shared" si="1"/>
         <v>-5.8309037900873273E-3</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <f t="shared" si="1"/>
         <v>2.9411764705882248E-3</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L33" s="10">
         <f t="shared" si="1"/>
         <v>-2.8818443804035088E-3</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M33" s="10">
         <f t="shared" si="1"/>
         <v>5.8823529411764497E-3</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="10">
         <f>B23/B22-1</f>
         <v>5.8997050147493457E-3</v>
       </c>
-      <c r="C33" s="10">
-        <f t="shared" ref="C33:N33" si="2">C23/C22-1</f>
+      <c r="C34" s="10">
+        <f t="shared" ref="C34:N34" si="2">C23/C22-1</f>
         <v>-1.4492753623188359E-2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="2"/>
         <v>-1.4492753623188359E-2</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="2"/>
         <v>8.7719298245612087E-3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <f t="shared" si="2"/>
         <v>-2.9154518950436081E-3</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="2"/>
         <v>5.8309037900874383E-3</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="2"/>
         <v>-1.7142857142857237E-2</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="2"/>
         <v>8.7976539589442737E-3</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L34" s="10">
         <f t="shared" si="2"/>
         <v>-2.0231213872832443E-2</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="2"/>
         <v>2.9239766081869956E-3</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <f t="shared" si="2"/>
         <v>-2.9154518950436081E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B35" s="10">
         <f>B24/B23-1</f>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="C34" s="10">
-        <f t="shared" ref="C34:N34" si="3">C24/C23-1</f>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35:N35" si="3">C24/C23-1</f>
         <v>-8.8235294117646745E-3</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="3"/>
         <v>-1.764705882352946E-2</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="3"/>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="3"/>
         <v>-2.0289855072463836E-2</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="3"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="3"/>
         <v>-5.8139534883719923E-3</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <f t="shared" si="3"/>
         <v>2.9069767441860517E-3</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="3"/>
         <v>-2.9154518950436081E-3</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <f t="shared" si="3"/>
         <v>-2.9239766081872176E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <f>B25/B24-1</f>
         <v>-1.4619883040935644E-2</v>
       </c>
-      <c r="C35" s="10">
-        <f t="shared" ref="C35:N35" si="4">C25/C24-1</f>
+      <c r="C36" s="10">
+        <f t="shared" ref="C36:N36" si="4">C25/C24-1</f>
         <v>8.9020771513352859E-3</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <f t="shared" si="4"/>
         <v>1.4970059880239583E-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <f t="shared" si="4"/>
         <v>2.9239766081869956E-3</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="4"/>
         <v>2.9585798816569309E-3</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <f t="shared" si="4"/>
         <v>-5.8651026392962935E-3</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
         <v>-2.8985507246377384E-3</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <f t="shared" si="4"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <f t="shared" si="4"/>
         <v>8.7976539589442737E-3</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <f t="shared" si="4"/>
         <v>-1.7391304347826098E-2</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L36" s="10">
         <f t="shared" si="4"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="10">
         <f t="shared" si="4"/>
         <v>8.7719298245612087E-3</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <f t="shared" si="4"/>
         <v>-1.2218963831868157E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B37" s="10">
         <f>B26/B25-1</f>
         <v>-2.9673590504450953E-3</v>
       </c>
-      <c r="C36" s="10">
-        <f t="shared" ref="C36:N36" si="5">C26/C25-1</f>
+      <c r="C37" s="10">
+        <f t="shared" ref="C37:N37" si="5">C26/C25-1</f>
         <v>-5.8823529411765607E-3</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="5"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <f t="shared" si="5"/>
         <v>-1.7492711370262204E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <f t="shared" si="5"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <f t="shared" si="5"/>
         <v>1.1799410029498469E-2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <f t="shared" si="5"/>
         <v>-1.744186046511631E-2</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <f t="shared" si="5"/>
         <v>-5.8651026392962935E-3</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <f t="shared" si="5"/>
         <v>-8.720930232558044E-3</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <f t="shared" si="5"/>
         <v>-1.4749262536873142E-2</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L37" s="10">
         <f t="shared" si="5"/>
-        <v>-1.1869436201780603E-2</v>
-      </c>
-      <c r="M36" s="10">
+        <v>-8.9020771513353969E-3</v>
+      </c>
+      <c r="M37" s="10">
         <f t="shared" si="5"/>
         <v>-1.1594202898550732E-2</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <f t="shared" si="5"/>
-        <v>-8.0743821874232902E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+        <v>-7.8297039393198098E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <f>B27/B26-1</f>
         <v>-8.9285714285715079E-3</v>
       </c>
-      <c r="C37" s="10">
-        <f t="shared" ref="C37:N39" si="6">C27/C26-1</f>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:N40" si="6">C27/C26-1</f>
         <v>2.9585798816569309E-3</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="6"/>
         <v>-2.9673590504450953E-3</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="6"/>
         <v>-2.670623145400608E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="6"/>
         <v>-1.7804154302670683E-2</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="6"/>
         <v>-3.2069970845480911E-2</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="6"/>
         <v>-8.8757396449703485E-3</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="6"/>
         <v>1.1799410029498469E-2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <f t="shared" si="6"/>
         <v>-1.1730205278592365E-2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <f t="shared" si="6"/>
-        <v>5.9880239520959666E-3</v>
-      </c>
-      <c r="L37" s="10">
+        <v>8.9820359281438389E-3</v>
+      </c>
+      <c r="L38" s="10">
         <f t="shared" si="6"/>
-        <v>2.7027027027027195E-2</v>
-      </c>
-      <c r="M37" s="10">
+        <v>2.6946107784431073E-2</v>
+      </c>
+      <c r="M38" s="10">
         <f t="shared" si="6"/>
         <v>-1.7595307917888658E-2</v>
       </c>
-      <c r="N37" s="14">
-        <f t="shared" si="6"/>
-        <v>-6.660088801184294E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="10">
-        <f>B28/B26-1</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.7699115044247815E-2</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" si="6"/>
-        <v>-8.9285714285715079E-3</v>
-      </c>
-      <c r="E38" s="10">
-        <f t="shared" si="6"/>
-        <v>1.8292682926829285E-2</v>
-      </c>
-      <c r="F38" s="10">
-        <f t="shared" si="6"/>
-        <v>3.0211480362537735E-2</v>
-      </c>
-      <c r="G38" s="10">
-        <f t="shared" si="6"/>
-        <v>1.5060240963855387E-2</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="6"/>
-        <v>8.9552238805969964E-3</v>
-      </c>
-      <c r="I38" s="10">
-        <f t="shared" si="6"/>
-        <v>5.8309037900874383E-3</v>
-      </c>
-      <c r="J38" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
-        <f t="shared" si="6"/>
-        <v>2.9761904761904656E-3</v>
-      </c>
-      <c r="L38" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.4619883040935644E-2</v>
-      </c>
-      <c r="M38" s="10">
-        <f t="shared" si="6"/>
-        <v>5.9701492537314049E-3</v>
-      </c>
       <c r="N38" s="14">
         <f t="shared" si="6"/>
-        <v>4.4698286565680867E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-6.411837237977891E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10">
+        <f>B28/B27-1</f>
+        <v>9.009009009009139E-3</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:N39" si="7">C28/C27-1</f>
+        <v>-1.7699115044247815E-2</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="7"/>
+        <v>-8.9285714285715079E-3</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="7"/>
+        <v>1.8292682926829285E-2</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="7"/>
+        <v>3.0211480362537735E-2</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="7"/>
+        <v>1.5060240963855387E-2</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="7"/>
+        <v>8.9552238805969964E-3</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="7"/>
+        <v>5.8309037900874383E-3</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.9673590504450953E-3</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.0408163265306034E-2</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="7"/>
+        <v>5.9701492537314049E-3</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="7"/>
+        <v>3.4748076445769716E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="10">
-        <f>B29/B27-1</f>
-        <v>2.1021021021021102E-2</v>
-      </c>
-      <c r="C39" s="10">
-        <f t="shared" si="6"/>
+      <c r="B40" s="10">
+        <f>B29/B28-1</f>
+        <v>1.1904761904761862E-2</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" ref="C40:N41" si="8">C29/C28-1</f>
         <v>0</v>
       </c>
-      <c r="D39" s="10">
-        <f t="shared" si="6"/>
+      <c r="D40" s="10">
+        <f t="shared" si="8"/>
         <v>-3.0030030030028243E-3</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="6"/>
+      <c r="E40" s="10">
+        <f t="shared" si="8"/>
         <v>-8.9820359281436168E-3</v>
       </c>
-      <c r="F39" s="10">
-        <f t="shared" si="6"/>
+      <c r="F40" s="10">
+        <f t="shared" si="8"/>
         <v>-1.4662756598240456E-2</v>
       </c>
-      <c r="G39" s="10">
-        <f t="shared" si="6"/>
+      <c r="G40" s="10">
+        <f t="shared" si="8"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="H39" s="10">
-        <f t="shared" si="6"/>
+      <c r="H40" s="10">
+        <f t="shared" si="8"/>
         <v>-1.4792899408283988E-2</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="6"/>
+      <c r="I40" s="10">
+        <f t="shared" si="8"/>
         <v>-3.4782608695652306E-2</v>
       </c>
-      <c r="J39" s="10">
-        <f t="shared" si="6"/>
+      <c r="J40" s="10">
+        <f t="shared" si="8"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="K39" s="10">
-        <f t="shared" si="6"/>
-        <v>5.9347181008901906E-3</v>
-      </c>
-      <c r="L39" s="10">
-        <f t="shared" si="6"/>
-        <v>-8.9020771513353969E-3</v>
-      </c>
-      <c r="M39" s="10">
-        <f t="shared" si="6"/>
-        <v>-5.9347181008903016E-3</v>
-      </c>
-      <c r="N39" s="14">
-        <f t="shared" si="6"/>
-        <v>-8.158220024721885E-3</v>
-      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="8"/>
+        <v>2.9761904761904656E-3</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="8"/>
+        <v>-8.9285714285715079E-3</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.1869436201780603E-2</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" si="8"/>
+        <v>-8.904279000741977E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="10">
+        <f>B30/B29-1</f>
+        <v>-1.4705882352941124E-2</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3549,141 +3633,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="14" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="255" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3729,7 +3812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="13.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2007</v>
       </c>
@@ -3773,7 +3856,7 @@
         <v>992.99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -3817,7 +3900,7 @@
         <v>1074.5899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2009</v>
       </c>
@@ -3861,7 +3944,7 @@
         <v>1049.44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2010</v>
       </c>
@@ -3905,7 +3988,7 @@
         <v>1057.92</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2011</v>
       </c>
@@ -3949,7 +4032,7 @@
         <v>1075.67</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
@@ -3993,7 +4076,7 @@
         <v>1089.55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
@@ -4245,10 +4328,10 @@
         <v>1257.6600000000001</v>
       </c>
       <c r="K25" s="11">
-        <v>1233.28</v>
+        <v>1233.6199999999999</v>
       </c>
       <c r="L25" s="11">
-        <v>1232.4100000000001</v>
+        <v>1234.0899999999999</v>
       </c>
       <c r="M25" s="11">
         <v>1286.1600000000001</v>
@@ -4283,23 +4366,23 @@
         <v>1258.04</v>
       </c>
       <c r="I26" s="11">
-        <v>1270.2</v>
+        <v>1269.56</v>
       </c>
       <c r="J26" s="11">
         <v>1302.6199999999999</v>
       </c>
       <c r="K26" s="11">
-        <v>1261.18</v>
+        <v>1262.52</v>
       </c>
       <c r="L26" s="11">
-        <v>1267.4000000000001</v>
+        <v>1272.54</v>
       </c>
       <c r="M26" s="11">
         <v>1323.42</v>
       </c>
       <c r="N26" s="16">
         <f>AVERAGE(B26:M26)</f>
-        <v>1273.8466666666666</v>
+        <v>1274.3333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4334,17 +4417,17 @@
         <v>1303.52</v>
       </c>
       <c r="K27" s="11">
-        <v>1299.6500000000001</v>
+        <v>1302.17</v>
       </c>
       <c r="L27" s="11">
-        <v>1353.29</v>
+        <v>1357.25</v>
       </c>
       <c r="M27" s="11">
         <v>1323.25</v>
       </c>
       <c r="N27" s="16">
         <f>AVERAGE(B27:M27)</f>
-        <v>1303.6575</v>
+        <v>1304.1975</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -4379,17 +4462,17 @@
         <v>1361.82</v>
       </c>
       <c r="K28" s="11">
-        <v>1385.74</v>
+        <v>1380.62</v>
       </c>
       <c r="L28" s="11">
-        <v>1368.22</v>
+        <v>1363.49</v>
       </c>
       <c r="M28" s="11">
         <v>1380.69</v>
       </c>
       <c r="N28" s="16">
         <f>AVERAGE(B28:M28)</f>
-        <v>1373.3783333333331</v>
+        <v>1372.5574999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4415,7 +4498,7 @@
         <v>1355.64</v>
       </c>
       <c r="H29" s="11">
-        <v>1367.3</v>
+        <v>1367.63</v>
       </c>
       <c r="I29" s="11">
         <v>1370.63</v>
@@ -4424,22 +4507,26 @@
         <v>1379.62</v>
       </c>
       <c r="K29" s="11">
-        <v>1434.99</v>
+        <v>1426.86</v>
       </c>
       <c r="L29" s="11">
-        <v>1394.78</v>
+        <v>1388.94</v>
       </c>
       <c r="M29" s="11">
-        <v>1403.32</v>
+        <v>1391.61</v>
       </c>
       <c r="N29" s="16">
         <f>AVERAGE(B29:M29)</f>
-        <v>1385.2566666666664</v>
+        <v>1383.1441666666667</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1423.42</v>
+      </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4454,459 +4541,480 @@
       <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10">
-        <f t="shared" ref="B31:N31" si="0">B22/B21-1</f>
+      <c r="B32" s="10">
+        <f>B22/B21-1</f>
         <v>4.4454225352112742E-2</v>
       </c>
-      <c r="C31" s="10">
-        <f t="shared" si="0"/>
+      <c r="C32" s="10">
+        <f>C22/C21-1</f>
         <v>4.5030433194015007E-2</v>
       </c>
-      <c r="D31" s="10">
-        <f t="shared" si="0"/>
+      <c r="D32" s="10">
+        <f>D22/D21-1</f>
         <v>4.173040663132821E-2</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
+      <c r="E32" s="10">
+        <f>E22/E21-1</f>
         <v>4.0061452261533681E-2</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
+      <c r="F32" s="10">
+        <f>F22/F21-1</f>
         <v>3.5775760540667889E-2</v>
       </c>
-      <c r="G31" s="10">
-        <f t="shared" si="0"/>
+      <c r="G32" s="10">
+        <f>G22/G21-1</f>
         <v>-1.4921986805822574E-3</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="0"/>
+      <c r="H32" s="10">
+        <f>H22/H21-1</f>
         <v>2.7734852296413592E-2</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="0"/>
+      <c r="I32" s="10">
+        <f>I22/I21-1</f>
         <v>6.7671809256661941E-2</v>
       </c>
-      <c r="J31" s="10">
-        <f t="shared" si="0"/>
+      <c r="J32" s="10">
+        <f>J22/J21-1</f>
         <v>2.7165537755797109E-2</v>
       </c>
-      <c r="K31" s="10">
-        <f t="shared" si="0"/>
+      <c r="K32" s="10">
+        <f>K22/K21-1</f>
         <v>2.2447702485249632E-2</v>
       </c>
-      <c r="L31" s="10">
-        <f t="shared" si="0"/>
+      <c r="L32" s="10">
+        <f>L22/L21-1</f>
         <v>1.3092295983375912E-2</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" si="0"/>
+      <c r="M32" s="10">
+        <f>M22/M21-1</f>
         <v>1.9886768266628829E-2</v>
       </c>
-      <c r="N31" s="14">
-        <f t="shared" si="0"/>
+      <c r="N32" s="14">
+        <f>N22/N21-1</f>
         <v>3.1224901390351389E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="1">B23/B22-1</f>
+      <c r="B33" s="10">
+        <f>B23/B22-1</f>
         <v>1.368696446130091E-2</v>
       </c>
-      <c r="C32" s="10">
-        <f t="shared" si="1"/>
+      <c r="C33" s="10">
+        <f>C23/C22-1</f>
         <v>-1.0437808060307363E-2</v>
       </c>
-      <c r="D32" s="10">
-        <f t="shared" si="1"/>
+      <c r="D33" s="10">
+        <f>D23/D22-1</f>
         <v>-2.2334539990437885E-2</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="1"/>
+      <c r="E33" s="10">
+        <f>E23/E22-1</f>
         <v>-1.1556374252745916E-2</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
+      <c r="F33" s="10">
+        <f>F23/F22-1</f>
         <v>2.4157927421259329E-2</v>
       </c>
-      <c r="G32" s="10">
-        <f t="shared" si="1"/>
+      <c r="G33" s="10">
+        <f>G23/G22-1</f>
         <v>-7.4022285339742089E-3</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="1"/>
+      <c r="H33" s="10">
+        <f>H23/H22-1</f>
         <v>1.4878792912029759E-2</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="1"/>
+      <c r="I33" s="10">
+        <f>I23/I22-1</f>
         <v>-4.39560439560438E-3</v>
       </c>
-      <c r="J32" s="10">
-        <f t="shared" si="1"/>
+      <c r="J33" s="10">
+        <f>J23/J22-1</f>
         <v>1.3389274624053593E-2</v>
       </c>
-      <c r="K32" s="10">
-        <f t="shared" si="1"/>
+      <c r="K33" s="10">
+        <f>K23/K22-1</f>
         <v>4.3691145482683602E-2</v>
       </c>
-      <c r="L32" s="10">
-        <f t="shared" si="1"/>
+      <c r="L33" s="10">
+        <f>L23/L22-1</f>
         <v>-2.3659998311808872E-2</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" si="1"/>
+      <c r="M33" s="10">
+        <f>M23/M22-1</f>
         <v>1.6993977481015943E-2</v>
       </c>
-      <c r="N32" s="14">
-        <f t="shared" si="1"/>
+      <c r="N33" s="14">
+        <f>N23/N22-1</f>
         <v>3.8855283539724894E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:N33" si="2">B24/B23-1</f>
+      <c r="B34" s="10">
+        <f>B24/B23-1</f>
         <v>4.0246659102915805E-2</v>
       </c>
-      <c r="C33" s="10">
-        <f t="shared" si="2"/>
+      <c r="C34" s="10">
+        <f>C24/C23-1</f>
         <v>1.7312697126902199E-2</v>
       </c>
-      <c r="D33" s="10">
-        <f t="shared" si="2"/>
+      <c r="D34" s="10">
+        <f>D24/D23-1</f>
         <v>1.8522076288947975E-2</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="2"/>
+      <c r="E34" s="10">
+        <f>E24/E23-1</f>
         <v>6.9366550044832165E-2</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="2"/>
+      <c r="F34" s="10">
+        <f>F24/F23-1</f>
         <v>7.1310838393412457E-3</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" si="2"/>
+      <c r="G34" s="10">
+        <f>G24/G23-1</f>
         <v>4.2710736234129909E-2</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="2"/>
+      <c r="H34" s="10">
+        <f>H24/H23-1</f>
         <v>5.2001412660539259E-2</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="2"/>
+      <c r="I34" s="10">
+        <f>I24/I23-1</f>
         <v>5.497619108032481E-4</v>
       </c>
-      <c r="J33" s="10">
-        <f t="shared" si="2"/>
+      <c r="J34" s="10">
+        <f>J24/J23-1</f>
         <v>2.3481007755274064E-2</v>
       </c>
-      <c r="K33" s="10">
-        <f t="shared" si="2"/>
+      <c r="K34" s="10">
+        <f>K24/K23-1</f>
         <v>3.0368272903960936E-2</v>
       </c>
-      <c r="L33" s="10">
-        <f t="shared" si="2"/>
+      <c r="L34" s="10">
+        <f>L24/L23-1</f>
         <v>3.4288085625113318E-2</v>
       </c>
-      <c r="M33" s="10">
-        <f t="shared" si="2"/>
+      <c r="M34" s="10">
+        <f>M24/M23-1</f>
         <v>4.4045074967601128E-2</v>
       </c>
-      <c r="N33" s="14">
-        <f t="shared" si="2"/>
+      <c r="N34" s="14">
+        <f>N24/N23-1</f>
         <v>3.2937951485268124E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:N34" si="3">B25/B24-1</f>
+      <c r="B35" s="10">
+        <f>B25/B24-1</f>
         <v>4.7456498209974551E-3</v>
       </c>
-      <c r="C34" s="10">
-        <f t="shared" si="3"/>
+      <c r="C35" s="10">
+        <f>C25/C24-1</f>
         <v>3.3671887574014514E-2</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="3"/>
+      <c r="D35" s="10">
+        <f>D25/D24-1</f>
         <v>4.0254473433762428E-2</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="3"/>
+      <c r="E35" s="10">
+        <f>E25/E24-1</f>
         <v>2.548315234814913E-2</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="3"/>
+      <c r="F35" s="10">
+        <f>F25/F24-1</f>
         <v>2.7109761888610029E-2</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" si="3"/>
+      <c r="G35" s="10">
+        <f>G25/G24-1</f>
         <v>2.2764694458283108E-2</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="3"/>
+      <c r="H35" s="10">
+        <f>H25/H24-1</f>
         <v>3.1466470154753123E-2</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="3"/>
+      <c r="I35" s="10">
+        <f>I25/I24-1</f>
         <v>3.6281255811594582E-2</v>
       </c>
-      <c r="J34" s="10">
-        <f t="shared" si="3"/>
+      <c r="J35" s="10">
+        <f>J25/J24-1</f>
         <v>5.7683736028997679E-2</v>
       </c>
-      <c r="K34" s="10">
-        <f t="shared" si="3"/>
-        <v>2.7237322449245038E-3</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="3"/>
-        <v>3.0158902643919516E-2</v>
-      </c>
-      <c r="M34" s="10">
-        <f t="shared" si="3"/>
+      <c r="K35" s="10">
+        <f>K25/K24-1</f>
+        <v>3.000170741424224E-3</v>
+      </c>
+      <c r="L35" s="10">
+        <f>L25/L24-1</f>
+        <v>3.156319744552083E-2</v>
+      </c>
+      <c r="M35" s="10">
+        <f>M25/M24-1</f>
         <v>5.7271329809533977E-2</v>
       </c>
-      <c r="N34" s="14">
-        <f t="shared" si="3"/>
+      <c r="N35" s="14">
+        <f>N25/N24-1</f>
         <v>2.9210166879473531E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:N35" si="4">B26/B25-1</f>
-        <v>4.1017567119655318E-2</v>
-      </c>
-      <c r="C35" s="10">
-        <f t="shared" si="4"/>
-        <v>4.3146542540114519E-2</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="4"/>
-        <v>3.3545430568376666E-2</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="4"/>
-        <v>8.9860439763045363E-3</v>
-      </c>
-      <c r="F35" s="10">
-        <f t="shared" si="4"/>
-        <v>3.9174406604747247E-2</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="4"/>
-        <v>7.5508771929824636E-2</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="4"/>
-        <v>-1.3415573178380269E-3</v>
-      </c>
-      <c r="I35" s="10">
-        <f t="shared" si="4"/>
-        <v>3.6136715882209014E-2</v>
-      </c>
-      <c r="J35" s="10">
-        <f t="shared" si="4"/>
-        <v>3.5748930553567648E-2</v>
-      </c>
-      <c r="K35" s="10">
-        <f t="shared" si="4"/>
-        <v>2.2622599896211737E-2</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="4"/>
-        <v>2.8391525547504459E-2</v>
-      </c>
-      <c r="M35" s="10">
-        <f t="shared" si="4"/>
-        <v>2.896995708154515E-2</v>
-      </c>
-      <c r="N35" s="14">
-        <f t="shared" si="4"/>
-        <v>3.2900293663331581E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="10">
+        <f>B26/B25-1</f>
+        <v>4.1017567119655318E-2</v>
+      </c>
+      <c r="C36" s="10">
+        <f>C26/C25-1</f>
+        <v>4.3146542540114519E-2</v>
+      </c>
+      <c r="D36" s="10">
+        <f>D26/D25-1</f>
+        <v>3.3545430568376666E-2</v>
+      </c>
+      <c r="E36" s="10">
+        <f>E26/E25-1</f>
+        <v>8.9860439763045363E-3</v>
+      </c>
+      <c r="F36" s="10">
+        <f>F26/F25-1</f>
+        <v>3.9174406604747247E-2</v>
+      </c>
+      <c r="G36" s="10">
+        <f>G26/G25-1</f>
+        <v>7.5508771929824636E-2</v>
+      </c>
+      <c r="H36" s="10">
+        <f>H26/H25-1</f>
+        <v>-1.3415573178380269E-3</v>
+      </c>
+      <c r="I36" s="10">
+        <f>I26/I25-1</f>
+        <v>3.5614650460885855E-2</v>
+      </c>
+      <c r="J36" s="10">
+        <f>J26/J25-1</f>
+        <v>3.5748930553567648E-2</v>
+      </c>
+      <c r="K36" s="10">
+        <f>K26/K25-1</f>
+        <v>2.3426987240803498E-2</v>
+      </c>
+      <c r="L36" s="10">
+        <f>L26/L25-1</f>
+        <v>3.1156560704648895E-2</v>
+      </c>
+      <c r="M36" s="10">
+        <f>M26/M25-1</f>
+        <v>2.896995708154515E-2</v>
+      </c>
+      <c r="N36" s="14">
+        <f>N26/N25-1</f>
+        <v>3.3294907988642652E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B37" s="10">
         <f>B27/B26-1</f>
         <v>1.5195415107856602E-2</v>
       </c>
-      <c r="C36" s="10">
-        <f t="shared" ref="C36:N38" si="5">C27/C26-1</f>
+      <c r="C37" s="10">
+        <f>C27/C26-1</f>
         <v>3.4652881979087224E-2</v>
       </c>
-      <c r="D36" s="10">
-        <f t="shared" si="5"/>
+      <c r="D37" s="10">
+        <f>D27/D26-1</f>
         <v>2.9721367166940516E-2</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="5"/>
+      <c r="E37" s="10">
+        <f>E27/E26-1</f>
         <v>4.4426789544768308E-2</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="5"/>
+      <c r="F37" s="10">
+        <f>F27/F26-1</f>
         <v>1.0590291570668153E-2</v>
       </c>
-      <c r="G36" s="10">
-        <f t="shared" si="5"/>
+      <c r="G37" s="10">
+        <f>G27/G26-1</f>
         <v>-2.875544058155699E-2</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="5"/>
+      <c r="H37" s="10">
+        <f>H27/H26-1</f>
         <v>2.0412705478363158E-2</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="5"/>
-        <v>5.8809636277751487E-2</v>
-      </c>
-      <c r="J36" s="10">
-        <f t="shared" si="5"/>
+      <c r="I37" s="10">
+        <f>I27/I26-1</f>
+        <v>5.9343394561895524E-2</v>
+      </c>
+      <c r="J37" s="10">
+        <f>J27/J26-1</f>
         <v>6.9091523237796437E-4</v>
       </c>
-      <c r="K36" s="10">
-        <f t="shared" si="5"/>
-        <v>3.050317956199744E-2</v>
-      </c>
-      <c r="L36" s="10">
-        <f t="shared" si="5"/>
-        <v>6.776866024932926E-2</v>
-      </c>
-      <c r="M36" s="10">
-        <f t="shared" si="5"/>
+      <c r="K37" s="10">
+        <f>K27/K26-1</f>
+        <v>3.1405443082089812E-2</v>
+      </c>
+      <c r="L37" s="10">
+        <f>L27/L26-1</f>
+        <v>6.6567652097380137E-2</v>
+      </c>
+      <c r="M37" s="10">
+        <f>M27/M26-1</f>
         <v>-1.2845506339642654E-4</v>
       </c>
-      <c r="N36" s="14">
-        <f t="shared" si="5"/>
-        <v>2.3402214813923239E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="N37" s="14">
+        <f>N27/N26-1</f>
+        <v>2.3435129479466354E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <f>B28/B27-1</f>
         <v>6.1698774492507935E-2</v>
       </c>
-      <c r="C37" s="10">
-        <f t="shared" si="5"/>
+      <c r="C38" s="10">
+        <f>C28/C27-1</f>
         <v>2.1487904511700684E-2</v>
       </c>
-      <c r="D37" s="10">
-        <f t="shared" si="5"/>
+      <c r="D38" s="10">
+        <f>D28/D27-1</f>
         <v>3.3881897386253579E-2</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="5"/>
+      <c r="E38" s="10">
+        <f>E28/E27-1</f>
         <v>3.2267879691469936E-2</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="5"/>
+      <c r="F38" s="10">
+        <f>F28/F27-1</f>
         <v>0.11412466687106448</v>
       </c>
-      <c r="G37" s="10">
-        <f t="shared" si="5"/>
+      <c r="G38" s="10">
+        <f>G28/G27-1</f>
         <v>8.6710136336692445E-2</v>
       </c>
-      <c r="H37" s="10">
-        <f t="shared" si="5"/>
+      <c r="H38" s="10">
+        <f>H28/H27-1</f>
         <v>7.3466176424765495E-2</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="5"/>
+      <c r="I38" s="10">
+        <f>I28/I27-1</f>
         <v>5.7654844226336488E-2</v>
       </c>
-      <c r="J37" s="10">
-        <f t="shared" si="5"/>
+      <c r="J38" s="10">
+        <f>J28/J27-1</f>
         <v>4.4725052166441515E-2</v>
       </c>
-      <c r="K37" s="10">
-        <f t="shared" si="5"/>
-        <v>6.6240911014503912E-2</v>
-      </c>
-      <c r="L37" s="10">
-        <f t="shared" si="5"/>
-        <v>1.1032372957754832E-2</v>
-      </c>
-      <c r="M37" s="10">
-        <f t="shared" si="5"/>
+      <c r="K38" s="10">
+        <f>K28/K27-1</f>
+        <v>6.0245590053525921E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <f>L28/L27-1</f>
+        <v>4.5975317738073951E-3</v>
+      </c>
+      <c r="M38" s="10">
+        <f>M28/M27-1</f>
         <v>4.3408275080294878E-2</v>
       </c>
-      <c r="N37" s="14">
-        <f t="shared" si="5"/>
-        <v>5.3480943678330339E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="N38" s="14">
+        <f>N28/N27-1</f>
+        <v>5.2415374205210474E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <f>B29/B28-1</f>
         <v>5.1075268817204256E-2</v>
       </c>
-      <c r="C38" s="10">
-        <f t="shared" si="5"/>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:N39" si="0">C29/C28-1</f>
         <v>2.4254452472274313E-2</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="5"/>
+      <c r="D39" s="10">
+        <f t="shared" si="0"/>
         <v>2.932584269662919E-2</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="5"/>
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
         <v>-2.1517420267641585E-3</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="5"/>
+      <c r="F39" s="10">
+        <f t="shared" si="0"/>
         <v>-2.1069714930849637E-2</v>
       </c>
-      <c r="G38" s="10">
-        <f t="shared" si="5"/>
+      <c r="G39" s="10">
+        <f t="shared" si="0"/>
         <v>-1.4051317856519363E-2</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="5"/>
-        <v>-7.7864777980160005E-3</v>
-      </c>
-      <c r="I38" s="10">
-        <f t="shared" si="5"/>
+      <c r="H39" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.5470055078625808E-3</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="0"/>
         <v>-3.6423328927757903E-2</v>
       </c>
-      <c r="J38" s="10">
-        <f t="shared" si="5"/>
+      <c r="J39" s="10">
+        <f t="shared" si="0"/>
         <v>1.3070743563760256E-2</v>
       </c>
-      <c r="K38" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5540577597529044E-2</v>
-      </c>
-      <c r="L38" s="10">
-        <f t="shared" si="5"/>
-        <v>1.9412082852172885E-2</v>
-      </c>
-      <c r="M38" s="10">
-        <f t="shared" si="5"/>
-        <v>1.6390355546864077E-2</v>
-      </c>
-      <c r="N38" s="14">
-        <f t="shared" si="5"/>
-        <v>8.6489884433398334E-3</v>
+      <c r="K39" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3492199156900604E-2</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8665336746144012E-2</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="0"/>
+        <v>7.9090889337938286E-3</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="0"/>
+        <v>7.713095201233422E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA921C-4C95-4006-9102-0F5A2B51C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED8D4C6-B539-48F6-A1ED-0F0C46BC4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="255" windowWidth="15210" windowHeight="9795" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1050" windowWidth="17985" windowHeight="9795" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1576,9 +1576,11 @@
         <v>2023</v>
       </c>
       <c r="B29" s="7">
-        <v>42.49</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>42.43</v>
+      </c>
+      <c r="C29" s="7">
+        <v>42.34</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1599,55 +1601,55 @@
         <v>33</v>
       </c>
       <c r="B31" s="10">
-        <f>B20/B19-1</f>
+        <f t="shared" ref="B31:N31" si="1">B20/B19-1</f>
         <v>9.3341630367138606E-4</v>
       </c>
       <c r="C31" s="10">
-        <f>C20/C19-1</f>
+        <f t="shared" si="1"/>
         <v>2.1929824561403466E-2</v>
       </c>
       <c r="D31" s="10">
-        <f>D20/D19-1</f>
+        <f t="shared" si="1"/>
         <v>2.5165146272412953E-2</v>
       </c>
       <c r="E31" s="10">
-        <f>E20/E19-1</f>
+        <f t="shared" si="1"/>
         <v>1.6604010025062621E-2</v>
       </c>
       <c r="F31" s="10">
-        <f>F20/F19-1</f>
+        <f t="shared" si="1"/>
         <v>2.0170185943901631E-2</v>
       </c>
       <c r="G31" s="10">
-        <f>G20/G19-1</f>
+        <f t="shared" si="1"/>
         <v>2.3306401491609785E-2</v>
       </c>
       <c r="H31" s="10">
-        <f>H20/H19-1</f>
+        <f t="shared" si="1"/>
         <v>1.1533665835411711E-2</v>
       </c>
       <c r="I31" s="10">
-        <f>I20/I19-1</f>
+        <f t="shared" si="1"/>
         <v>1.0341585709808809E-2</v>
       </c>
       <c r="J31" s="10">
-        <f>J20/J19-1</f>
+        <f t="shared" si="1"/>
         <v>5.5624227441284368E-3</v>
       </c>
       <c r="K31" s="10">
-        <f>K20/K19-1</f>
+        <f t="shared" si="1"/>
         <v>3.0701754385964897E-2</v>
       </c>
       <c r="L31" s="10">
-        <f>L20/L19-1</f>
+        <f t="shared" si="1"/>
         <v>5.3125000000000089E-2</v>
       </c>
       <c r="M31" s="10">
-        <f>M20/M19-1</f>
+        <f t="shared" si="1"/>
         <v>1.7554665845395778E-2</v>
       </c>
       <c r="N31" s="14">
-        <f>N20/N19-1</f>
+        <f t="shared" si="1"/>
         <v>1.9558884727423953E-2</v>
       </c>
     </row>
@@ -1656,55 +1658,55 @@
         <v>34</v>
       </c>
       <c r="B32" s="10">
-        <f>B21/B20-1</f>
+        <f t="shared" ref="B32:N32" si="2">B21/B20-1</f>
         <v>4.4451352191482663E-2</v>
       </c>
       <c r="C32" s="10">
-        <f>C21/C20-1</f>
+        <f t="shared" si="2"/>
         <v>4.1998773758430641E-2</v>
       </c>
       <c r="D32" s="10">
-        <f>D21/D20-1</f>
+        <f t="shared" si="2"/>
         <v>4.1730592206198125E-2</v>
       </c>
       <c r="E32" s="10">
-        <f>E21/E20-1</f>
+        <f t="shared" si="2"/>
         <v>4.0061633281972098E-2</v>
       </c>
       <c r="F32" s="10">
-        <f>F21/F20-1</f>
+        <f t="shared" si="2"/>
         <v>3.2746370095767752E-2</v>
       </c>
       <c r="G32" s="10">
-        <f>G21/G20-1</f>
+        <f t="shared" si="2"/>
         <v>1.305800182204675E-2</v>
       </c>
       <c r="H32" s="10">
-        <f>H21/H20-1</f>
+        <f t="shared" si="2"/>
         <v>2.7734976887519247E-2</v>
       </c>
       <c r="I32" s="10">
-        <f>I21/I20-1</f>
+        <f t="shared" si="2"/>
         <v>5.241935483870952E-2</v>
       </c>
       <c r="J32" s="10">
-        <f>J21/J20-1</f>
+        <f t="shared" si="2"/>
         <v>3.3189920098340542E-2</v>
       </c>
       <c r="K32" s="10">
-        <f>K21/K20-1</f>
+        <f t="shared" si="2"/>
         <v>1.9452887537994012E-2</v>
       </c>
       <c r="L32" s="10">
-        <f>L21/L20-1</f>
+        <f t="shared" si="2"/>
         <v>1.6023738872403603E-2</v>
       </c>
       <c r="M32" s="10">
-        <f>M21/M20-1</f>
+        <f t="shared" si="2"/>
         <v>1.3922518159806385E-2</v>
       </c>
       <c r="N32" s="14">
-        <f>N21/N20-1</f>
+        <f t="shared" si="2"/>
         <v>3.1275510204081813E-2</v>
       </c>
     </row>
@@ -1713,55 +1715,55 @@
         <v>35</v>
       </c>
       <c r="B33" s="10">
-        <f>B22/B21-1</f>
+        <f t="shared" ref="B33:N33" si="3">B22/B21-1</f>
         <v>7.7380952380952106E-3</v>
       </c>
       <c r="C33" s="10">
-        <f>C22/C21-1</f>
+        <f t="shared" si="3"/>
         <v>4.1188584877904777E-3</v>
       </c>
       <c r="D33" s="10">
-        <f>D22/D21-1</f>
+        <f t="shared" si="3"/>
         <v>-7.9528718703977264E-3</v>
       </c>
       <c r="E33" s="10">
-        <f>E22/E21-1</f>
+        <f t="shared" si="3"/>
         <v>-1.1555555555555541E-2</v>
       </c>
       <c r="F33" s="10">
-        <f>F22/F21-1</f>
+        <f t="shared" si="3"/>
         <v>1.525575830092718E-2</v>
       </c>
       <c r="G33" s="10">
-        <f>G22/G21-1</f>
+        <f t="shared" si="3"/>
         <v>-4.4964028776978138E-3</v>
       </c>
       <c r="H33" s="10">
-        <f>H22/H21-1</f>
+        <f t="shared" si="3"/>
         <v>8.9955022488754643E-3</v>
       </c>
       <c r="I33" s="10">
-        <f>I22/I21-1</f>
+        <f t="shared" si="3"/>
         <v>1.2967875036840493E-2</v>
       </c>
       <c r="J33" s="10">
-        <f>J22/J21-1</f>
+        <f t="shared" si="3"/>
         <v>1.3384889946460587E-2</v>
       </c>
       <c r="K33" s="10">
-        <f>K22/K21-1</f>
+        <f t="shared" si="3"/>
         <v>3.4585569469290478E-2</v>
       </c>
       <c r="L33" s="10">
-        <f>L22/L21-1</f>
+        <f t="shared" si="3"/>
         <v>-3.5046728971963592E-3</v>
       </c>
       <c r="M33" s="10">
-        <f>M22/M21-1</f>
+        <f t="shared" si="3"/>
         <v>1.4029850746268613E-2</v>
       </c>
       <c r="N33" s="14">
-        <f>N22/N21-1</f>
+        <f t="shared" si="3"/>
         <v>6.9262355909562867E-3</v>
       </c>
     </row>
@@ -1770,55 +1772,55 @@
         <v>36</v>
       </c>
       <c r="B34" s="10">
-        <f>B23/B22-1</f>
+        <f t="shared" ref="B34:N34" si="4">B23/B22-1</f>
         <v>3.7212049616066167E-2</v>
       </c>
       <c r="C34" s="10">
-        <f>C23/C22-1</f>
+        <f t="shared" si="4"/>
         <v>2.6369762672135977E-2</v>
       </c>
       <c r="D34" s="10">
-        <f>D23/D22-1</f>
+        <f t="shared" si="4"/>
         <v>3.6817102137767233E-2</v>
       </c>
       <c r="E34" s="10">
-        <f>E23/E22-1</f>
+        <f t="shared" si="4"/>
         <v>6.6247002398081456E-2</v>
       </c>
       <c r="F34" s="10">
-        <f>F23/F22-1</f>
+        <f t="shared" si="4"/>
         <v>2.7990571596935965E-2</v>
       </c>
       <c r="G34" s="10">
-        <f>G23/G22-1</f>
+        <f t="shared" si="4"/>
         <v>4.5769346582354542E-2</v>
       </c>
       <c r="H34" s="10">
-        <f>H23/H22-1</f>
+        <f t="shared" si="4"/>
         <v>5.2005943536404198E-2</v>
       </c>
       <c r="I34" s="10">
-        <f>I23/I22-1</f>
+        <f t="shared" si="4"/>
         <v>6.4009310445156675E-3</v>
       </c>
       <c r="J34" s="10">
-        <f>J23/J22-1</f>
+        <f t="shared" si="4"/>
         <v>2.3481068388611526E-2</v>
       </c>
       <c r="K34" s="10">
-        <f>K23/K22-1</f>
+        <f t="shared" si="4"/>
         <v>2.7377521613832778E-2</v>
       </c>
       <c r="L34" s="10">
-        <f>L23/L22-1</f>
+        <f t="shared" si="4"/>
         <v>3.4290738569753954E-2</v>
       </c>
       <c r="M34" s="10">
-        <f>M23/M22-1</f>
+        <f t="shared" si="4"/>
         <v>4.7100382690609344E-2</v>
       </c>
       <c r="N34" s="14">
-        <f>N23/N22-1</f>
+        <f t="shared" si="4"/>
         <v>3.579324915245885E-2</v>
       </c>
     </row>
@@ -1827,55 +1829,55 @@
         <v>37</v>
       </c>
       <c r="B35" s="10">
-        <f>B24/B23-1</f>
+        <f t="shared" ref="B35:N35" si="5">B24/B23-1</f>
         <v>1.9646924829157308E-2</v>
       </c>
       <c r="C35" s="10">
-        <f>C24/C23-1</f>
+        <f t="shared" si="5"/>
         <v>2.4550385383956597E-2</v>
       </c>
       <c r="D35" s="10">
-        <f>D24/D23-1</f>
+        <f t="shared" si="5"/>
         <v>2.4914089347078949E-2</v>
       </c>
       <c r="E35" s="10">
-        <f>E24/E23-1</f>
+        <f t="shared" si="5"/>
         <v>2.2490863086870982E-2</v>
       </c>
       <c r="F35" s="10">
-        <f>F24/F23-1</f>
+        <f t="shared" si="5"/>
         <v>2.407566638005143E-2</v>
       </c>
       <c r="G35" s="10">
-        <f>G24/G23-1</f>
+        <f t="shared" si="5"/>
         <v>2.879355024474517E-2</v>
       </c>
       <c r="H35" s="10">
-        <f>H24/H23-1</f>
+        <f t="shared" si="5"/>
         <v>3.446327683615813E-2</v>
       </c>
       <c r="I35" s="10">
-        <f>I24/I23-1</f>
+        <f t="shared" si="5"/>
         <v>3.9317721884937873E-2</v>
       </c>
       <c r="J35" s="10">
-        <f>J24/J23-1</f>
+        <f t="shared" si="5"/>
         <v>4.8465729853742534E-2</v>
       </c>
       <c r="K35" s="10">
-        <f>K24/K23-1</f>
+        <f t="shared" si="5"/>
         <v>2.0757363253856909E-2</v>
       </c>
       <c r="L35" s="10">
-        <f>L24/L23-1</f>
+        <f t="shared" si="5"/>
         <v>3.7687730235194117E-2</v>
       </c>
       <c r="M35" s="10">
-        <f>M24/M23-1</f>
+        <f t="shared" si="5"/>
         <v>4.8074219848186717E-2</v>
       </c>
       <c r="N35" s="14">
-        <f>N24/N23-1</f>
+        <f t="shared" si="5"/>
         <v>3.1093612883333677E-2</v>
       </c>
     </row>
@@ -1884,55 +1886,55 @@
         <v>38</v>
       </c>
       <c r="B36" s="10">
-        <f>B25/B24-1</f>
+        <f t="shared" ref="B36:N36" si="6">B25/B24-1</f>
         <v>4.4121753700083755E-2</v>
       </c>
       <c r="C36" s="10">
-        <f>C25/C24-1</f>
+        <f t="shared" si="6"/>
         <v>4.931735859570896E-2</v>
       </c>
       <c r="D36" s="10">
-        <f>D25/D24-1</f>
+        <f t="shared" si="6"/>
         <v>3.9675887119307029E-2</v>
       </c>
       <c r="E36" s="10">
-        <f>E25/E24-1</f>
+        <f t="shared" si="6"/>
         <v>2.6945284575199402E-2</v>
       </c>
       <c r="F36" s="10">
-        <f>F25/F24-1</f>
+        <f t="shared" si="6"/>
         <v>4.534005037783384E-2</v>
       </c>
       <c r="G36" s="10">
-        <f>G25/G24-1</f>
+        <f t="shared" si="6"/>
         <v>6.2972292191435741E-2</v>
       </c>
       <c r="H36" s="10">
-        <f>H25/H24-1</f>
+        <f t="shared" si="6"/>
         <v>1.6384489350081965E-2</v>
       </c>
       <c r="I36" s="10">
-        <f>I25/I24-1</f>
+        <f t="shared" si="6"/>
         <v>4.1724617524339314E-2</v>
       </c>
       <c r="J36" s="10">
-        <f>J25/J24-1</f>
+        <f t="shared" si="6"/>
         <v>4.48577680525164E-2</v>
       </c>
       <c r="K36" s="10">
-        <f>K25/K24-1</f>
+        <f t="shared" si="6"/>
         <v>3.8746908491343657E-2</v>
       </c>
       <c r="L36" s="10">
-        <f>L25/L24-1</f>
+        <f t="shared" si="6"/>
         <v>4.0415073730202256E-2</v>
       </c>
       <c r="M36" s="10">
-        <f>M25/M24-1</f>
+        <f t="shared" si="6"/>
         <v>4.1040772532188852E-2</v>
       </c>
       <c r="N36" s="14">
-        <f>N25/N24-1</f>
+        <f t="shared" si="6"/>
         <v>4.0898008004784492E-2</v>
       </c>
     </row>
@@ -1941,55 +1943,55 @@
         <v>39</v>
       </c>
       <c r="B37" s="10">
-        <f>B26/B25-1</f>
+        <f t="shared" ref="B37:N37" si="7">B26/B25-1</f>
         <v>2.4338058304359311E-2</v>
       </c>
       <c r="C37" s="10">
-        <f>C26/C25-1</f>
+        <f t="shared" si="7"/>
         <v>3.1598513011152463E-2</v>
       </c>
       <c r="D37" s="10">
-        <f>D26/D25-1</f>
+        <f t="shared" si="7"/>
         <v>3.2786885245901676E-2</v>
       </c>
       <c r="E37" s="10">
-        <f>E26/E25-1</f>
+        <f t="shared" si="7"/>
         <v>7.3092369477911534E-2</v>
       </c>
       <c r="F37" s="10">
-        <f>F26/F25-1</f>
+        <f t="shared" si="7"/>
         <v>2.8915662650602414E-2</v>
       </c>
       <c r="G37" s="10">
-        <f>G26/G25-1</f>
+        <f t="shared" si="7"/>
         <v>3.4228541337546492E-3</v>
       </c>
       <c r="H37" s="10">
-        <f>H26/H25-1</f>
+        <f t="shared" si="7"/>
         <v>2.9554003224073089E-2</v>
       </c>
       <c r="I37" s="10">
-        <f>I26/I25-1</f>
+        <f t="shared" si="7"/>
         <v>4.6995994659545959E-2</v>
       </c>
       <c r="J37" s="10">
-        <f>J26/J25-1</f>
+        <f t="shared" si="7"/>
         <v>1.2565445026177846E-2</v>
       </c>
       <c r="K37" s="10">
-        <f>K26/K25-1</f>
+        <f t="shared" si="7"/>
         <v>2.2222222222222365E-2</v>
       </c>
       <c r="L37" s="10">
-        <f>L26/L25-1</f>
+        <f t="shared" si="7"/>
         <v>3.8582677165354351E-2</v>
       </c>
       <c r="M37" s="10">
-        <f>M26/M25-1</f>
+        <f t="shared" si="7"/>
         <v>1.7778922958000543E-2</v>
       </c>
       <c r="N37" s="14">
-        <f>N26/N25-1</f>
+        <f t="shared" si="7"/>
         <v>3.0053920268717338E-2</v>
       </c>
     </row>
@@ -1998,55 +2000,55 @@
         <v>40</v>
       </c>
       <c r="B38" s="10">
-        <f>B27/B26-1</f>
+        <f t="shared" ref="B38:N38" si="8">B27/B26-1</f>
         <v>5.2219321148825104E-2</v>
       </c>
       <c r="C38" s="10">
-        <f>C27/C26-1</f>
+        <f t="shared" si="8"/>
         <v>3.9897039897039743E-2</v>
       </c>
       <c r="D38" s="10">
-        <f>D27/D26-1</f>
+        <f t="shared" si="8"/>
         <v>4.3195420244600768E-2</v>
       </c>
       <c r="E38" s="10">
-        <f>E27/E26-1</f>
+        <f t="shared" si="8"/>
         <v>1.3722554890219563E-2</v>
       </c>
       <c r="F38" s="10">
-        <f>F27/F26-1</f>
+        <f t="shared" si="8"/>
         <v>8.1446786364819168E-2</v>
       </c>
       <c r="G38" s="10">
-        <f>G27/G26-1</f>
+        <f t="shared" si="8"/>
         <v>7.0585148255051022E-2</v>
       </c>
       <c r="H38" s="10">
-        <f>H27/H26-1</f>
+        <f t="shared" si="8"/>
         <v>6.3935281837160796E-2</v>
       </c>
       <c r="I38" s="10">
-        <f>I27/I26-1</f>
+        <f t="shared" si="8"/>
         <v>5.1517470033154655E-2</v>
       </c>
       <c r="J38" s="10">
-        <f>J27/J26-1</f>
+        <f t="shared" si="8"/>
         <v>4.4725956566701086E-2</v>
       </c>
       <c r="K38" s="10">
-        <f>K27/K26-1</f>
+        <f t="shared" si="8"/>
         <v>6.3405797101449446E-2</v>
       </c>
       <c r="L38" s="10">
-        <f>L27/L26-1</f>
+        <f t="shared" si="8"/>
         <v>2.5524387161991458E-2</v>
       </c>
       <c r="M38" s="10">
-        <f>M27/M26-1</f>
+        <f t="shared" si="8"/>
         <v>3.7215189873417653E-2</v>
       </c>
       <c r="N38" s="14">
-        <f>N27/N26-1</f>
+        <f t="shared" si="8"/>
         <v>4.872135930661603E-2</v>
       </c>
     </row>
@@ -2059,51 +2061,51 @@
         <v>3.8709677419354938E-2</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" ref="C39:N40" si="1">C28/C27-1</f>
+        <f t="shared" ref="C39:N40" si="9">C28/C27-1</f>
         <v>2.4257425742574279E-2</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.2427039161885718E-2</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8914595126752243E-3</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-6.4966313763235028E-3</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-2.2058823529410576E-3</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3583517292126199E-3</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.6977928692699651E-3</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.5241276911655675E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.042102701387206E-2</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.7846229669788114E-2</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.0014644862094144E-2</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.6795204876951075E-2</v>
       </c>
     </row>
@@ -2113,9 +2115,12 @@
       </c>
       <c r="B40" s="10">
         <f>B29/B28-1</f>
-        <v>1.5050167224080369E-2</v>
-      </c>
-      <c r="C40" s="10"/>
+        <v>1.361681796464409E-2</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" si="9"/>
+        <v>2.3199613339777603E-2</v>
+      </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2130,16 +2135,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2155,7 +2160,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2165,54 +2170,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2221,10 +2226,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2233,10 +2238,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2245,10 +2250,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2257,10 +2262,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2269,10 +2274,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2281,10 +2286,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3043,9 +3048,11 @@
         <v>2023</v>
       </c>
       <c r="B30" s="19">
-        <v>33.5</v>
-      </c>
-      <c r="C30" s="19"/>
+        <v>33.6</v>
+      </c>
+      <c r="C30" s="19">
+        <v>33</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -3193,55 +3200,55 @@
         <v>35</v>
       </c>
       <c r="B34" s="10">
-        <f>B23/B22-1</f>
+        <f t="shared" ref="B34:B41" si="2">B23/B22-1</f>
         <v>5.8997050147493457E-3</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:N34" si="2">C23/C22-1</f>
+        <f t="shared" ref="C34:N34" si="3">C23/C22-1</f>
         <v>-1.4492753623188359E-2</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4492753623188359E-2</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7719298245612087E-3</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.9154518950436081E-3</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8309037900874383E-3</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7142857142857237E-2</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7976539589442737E-3</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0231213872832443E-2</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9239766081869956E-3</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.9154518950436081E-3</v>
       </c>
     </row>
@@ -3250,55 +3257,55 @@
         <v>36</v>
       </c>
       <c r="B35" s="10">
-        <f>B24/B23-1</f>
+        <f t="shared" si="2"/>
         <v>2.9325513196480912E-3</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" ref="C35:N35" si="3">C24/C23-1</f>
+        <f t="shared" ref="C35:N35" si="4">C24/C23-1</f>
         <v>-8.8235294117646745E-3</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.764705882352946E-2</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9325513196480912E-3</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0289855072463836E-2</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.9239766081872176E-3</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8139534883719923E-3</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9069767441860517E-3</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.9154518950436081E-3</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.9239766081872176E-3</v>
       </c>
     </row>
@@ -3307,55 +3314,55 @@
         <v>37</v>
       </c>
       <c r="B36" s="10">
-        <f>B25/B24-1</f>
+        <f t="shared" si="2"/>
         <v>-1.4619883040935644E-2</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" ref="C36:N36" si="4">C25/C24-1</f>
+        <f t="shared" ref="C36:N36" si="5">C25/C24-1</f>
         <v>8.9020771513352859E-3</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4970059880239583E-2</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9239766081869956E-3</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9585798816569309E-3</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.8651026392962935E-3</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8985507246377384E-3</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9239766081872176E-3</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7976539589442737E-3</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7391304347826098E-2</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.8997050147491237E-3</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7719298245612087E-3</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2218963831868157E-3</v>
       </c>
     </row>
@@ -3364,55 +3371,55 @@
         <v>38</v>
       </c>
       <c r="B37" s="10">
-        <f>B26/B25-1</f>
+        <f t="shared" si="2"/>
         <v>-2.9673590504450953E-3</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:N37" si="5">C26/C25-1</f>
+        <f t="shared" ref="C37:N37" si="6">C26/C25-1</f>
         <v>-5.8823529411765607E-3</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.8997050147491237E-3</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.7492711370262204E-2</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.8997050147491237E-3</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1799410029498469E-2</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.744186046511631E-2</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.8651026392962935E-3</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.720930232558044E-3</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.4749262536873142E-2</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.9020771513353969E-3</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1594202898550732E-2</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.8297039393198098E-3</v>
       </c>
     </row>
@@ -3421,55 +3428,55 @@
         <v>39</v>
       </c>
       <c r="B38" s="10">
-        <f>B27/B26-1</f>
+        <f t="shared" si="2"/>
         <v>-8.9285714285715079E-3</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" ref="C38:N40" si="6">C27/C26-1</f>
+        <f t="shared" ref="C38:N38" si="7">C27/C26-1</f>
         <v>2.9585798816569309E-3</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.9673590504450953E-3</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.670623145400608E-2</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.7804154302670683E-2</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.2069970845480911E-2</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.8757396449703485E-3</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1799410029498469E-2</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1730205278592365E-2</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9820359281438389E-3</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6946107784431073E-2</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.7595307917888658E-2</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.411837237977891E-3</v>
       </c>
     </row>
@@ -3478,55 +3485,55 @@
         <v>40</v>
       </c>
       <c r="B39" s="10">
-        <f>B28/B27-1</f>
+        <f t="shared" si="2"/>
         <v>9.009009009009139E-3</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" ref="C39:N39" si="7">C28/C27-1</f>
+        <f t="shared" ref="C39:N39" si="8">C28/C27-1</f>
         <v>-1.7699115044247815E-2</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-8.9285714285715079E-3</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8292682926829285E-2</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0211480362537735E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5060240963855387E-2</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9552238805969964E-3</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.8309037900874383E-3</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.9673590504450953E-3</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.0408163265306034E-2</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.9701492537314049E-3</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4748076445769716E-3</v>
       </c>
     </row>
@@ -3535,55 +3542,55 @@
         <v>41</v>
       </c>
       <c r="B40" s="10">
-        <f>B29/B28-1</f>
+        <f t="shared" si="2"/>
         <v>1.1904761904761862E-2</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:N41" si="8">C29/C28-1</f>
+        <f t="shared" ref="C40:N41" si="9">C29/C28-1</f>
         <v>0</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.0030030030028243E-3</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.9820359281436168E-3</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.4662756598240456E-2</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.4792899408283988E-2</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.4782608695652306E-2</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9761904761904656E-3</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.9285714285715079E-3</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
       <c r="N40" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.904279000741977E-3</v>
       </c>
     </row>
@@ -3592,10 +3599,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="10">
-        <f>B30/B29-1</f>
-        <v>-1.4705882352941124E-2</v>
-      </c>
-      <c r="C41" s="10"/>
+        <f t="shared" si="2"/>
+        <v>-1.1764705882352899E-2</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" si="9"/>
+        <v>-9.009009009008917E-3</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3635,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3647,114 +3657,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3763,10 +3773,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4525,9 +4535,11 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11">
-        <v>1423.42</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>1425.65</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1397.22</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -4561,55 +4573,55 @@
         <v>34</v>
       </c>
       <c r="B32" s="10">
-        <f>B22/B21-1</f>
+        <f t="shared" ref="B32:N32" si="0">B22/B21-1</f>
         <v>4.4454225352112742E-2</v>
       </c>
       <c r="C32" s="10">
-        <f>C22/C21-1</f>
+        <f t="shared" si="0"/>
         <v>4.5030433194015007E-2</v>
       </c>
       <c r="D32" s="10">
-        <f>D22/D21-1</f>
+        <f t="shared" si="0"/>
         <v>4.173040663132821E-2</v>
       </c>
       <c r="E32" s="10">
-        <f>E22/E21-1</f>
+        <f t="shared" si="0"/>
         <v>4.0061452261533681E-2</v>
       </c>
       <c r="F32" s="10">
-        <f>F22/F21-1</f>
+        <f t="shared" si="0"/>
         <v>3.5775760540667889E-2</v>
       </c>
       <c r="G32" s="10">
-        <f>G22/G21-1</f>
+        <f t="shared" si="0"/>
         <v>-1.4921986805822574E-3</v>
       </c>
       <c r="H32" s="10">
-        <f>H22/H21-1</f>
+        <f t="shared" si="0"/>
         <v>2.7734852296413592E-2</v>
       </c>
       <c r="I32" s="10">
-        <f>I22/I21-1</f>
+        <f t="shared" si="0"/>
         <v>6.7671809256661941E-2</v>
       </c>
       <c r="J32" s="10">
-        <f>J22/J21-1</f>
+        <f t="shared" si="0"/>
         <v>2.7165537755797109E-2</v>
       </c>
       <c r="K32" s="10">
-        <f>K22/K21-1</f>
+        <f t="shared" si="0"/>
         <v>2.2447702485249632E-2</v>
       </c>
       <c r="L32" s="10">
-        <f>L22/L21-1</f>
+        <f t="shared" si="0"/>
         <v>1.3092295983375912E-2</v>
       </c>
       <c r="M32" s="10">
-        <f>M22/M21-1</f>
+        <f t="shared" si="0"/>
         <v>1.9886768266628829E-2</v>
       </c>
       <c r="N32" s="14">
-        <f>N22/N21-1</f>
+        <f t="shared" si="0"/>
         <v>3.1224901390351389E-2</v>
       </c>
     </row>
@@ -4618,55 +4630,55 @@
         <v>35</v>
       </c>
       <c r="B33" s="10">
-        <f>B23/B22-1</f>
+        <f t="shared" ref="B33:N33" si="1">B23/B22-1</f>
         <v>1.368696446130091E-2</v>
       </c>
       <c r="C33" s="10">
-        <f>C23/C22-1</f>
+        <f t="shared" si="1"/>
         <v>-1.0437808060307363E-2</v>
       </c>
       <c r="D33" s="10">
-        <f>D23/D22-1</f>
+        <f t="shared" si="1"/>
         <v>-2.2334539990437885E-2</v>
       </c>
       <c r="E33" s="10">
-        <f>E23/E22-1</f>
+        <f t="shared" si="1"/>
         <v>-1.1556374252745916E-2</v>
       </c>
       <c r="F33" s="10">
-        <f>F23/F22-1</f>
+        <f t="shared" si="1"/>
         <v>2.4157927421259329E-2</v>
       </c>
       <c r="G33" s="10">
-        <f>G23/G22-1</f>
+        <f t="shared" si="1"/>
         <v>-7.4022285339742089E-3</v>
       </c>
       <c r="H33" s="10">
-        <f>H23/H22-1</f>
+        <f t="shared" si="1"/>
         <v>1.4878792912029759E-2</v>
       </c>
       <c r="I33" s="10">
-        <f>I23/I22-1</f>
+        <f t="shared" si="1"/>
         <v>-4.39560439560438E-3</v>
       </c>
       <c r="J33" s="10">
-        <f>J23/J22-1</f>
+        <f t="shared" si="1"/>
         <v>1.3389274624053593E-2</v>
       </c>
       <c r="K33" s="10">
-        <f>K23/K22-1</f>
+        <f t="shared" si="1"/>
         <v>4.3691145482683602E-2</v>
       </c>
       <c r="L33" s="10">
-        <f>L23/L22-1</f>
+        <f t="shared" si="1"/>
         <v>-2.3659998311808872E-2</v>
       </c>
       <c r="M33" s="10">
-        <f>M23/M22-1</f>
+        <f t="shared" si="1"/>
         <v>1.6993977481015943E-2</v>
       </c>
       <c r="N33" s="14">
-        <f>N23/N22-1</f>
+        <f t="shared" si="1"/>
         <v>3.8855283539724894E-3</v>
       </c>
     </row>
@@ -4675,55 +4687,55 @@
         <v>36</v>
       </c>
       <c r="B34" s="10">
-        <f>B24/B23-1</f>
+        <f t="shared" ref="B34:N34" si="2">B24/B23-1</f>
         <v>4.0246659102915805E-2</v>
       </c>
       <c r="C34" s="10">
-        <f>C24/C23-1</f>
+        <f t="shared" si="2"/>
         <v>1.7312697126902199E-2</v>
       </c>
       <c r="D34" s="10">
-        <f>D24/D23-1</f>
+        <f t="shared" si="2"/>
         <v>1.8522076288947975E-2</v>
       </c>
       <c r="E34" s="10">
-        <f>E24/E23-1</f>
+        <f t="shared" si="2"/>
         <v>6.9366550044832165E-2</v>
       </c>
       <c r="F34" s="10">
-        <f>F24/F23-1</f>
+        <f t="shared" si="2"/>
         <v>7.1310838393412457E-3</v>
       </c>
       <c r="G34" s="10">
-        <f>G24/G23-1</f>
+        <f t="shared" si="2"/>
         <v>4.2710736234129909E-2</v>
       </c>
       <c r="H34" s="10">
-        <f>H24/H23-1</f>
+        <f t="shared" si="2"/>
         <v>5.2001412660539259E-2</v>
       </c>
       <c r="I34" s="10">
-        <f>I24/I23-1</f>
+        <f t="shared" si="2"/>
         <v>5.497619108032481E-4</v>
       </c>
       <c r="J34" s="10">
-        <f>J24/J23-1</f>
+        <f t="shared" si="2"/>
         <v>2.3481007755274064E-2</v>
       </c>
       <c r="K34" s="10">
-        <f>K24/K23-1</f>
+        <f t="shared" si="2"/>
         <v>3.0368272903960936E-2</v>
       </c>
       <c r="L34" s="10">
-        <f>L24/L23-1</f>
+        <f t="shared" si="2"/>
         <v>3.4288085625113318E-2</v>
       </c>
       <c r="M34" s="10">
-        <f>M24/M23-1</f>
+        <f t="shared" si="2"/>
         <v>4.4045074967601128E-2</v>
       </c>
       <c r="N34" s="14">
-        <f>N24/N23-1</f>
+        <f t="shared" si="2"/>
         <v>3.2937951485268124E-2</v>
       </c>
     </row>
@@ -4732,55 +4744,55 @@
         <v>37</v>
       </c>
       <c r="B35" s="10">
-        <f>B25/B24-1</f>
+        <f t="shared" ref="B35:N35" si="3">B25/B24-1</f>
         <v>4.7456498209974551E-3</v>
       </c>
       <c r="C35" s="10">
-        <f>C25/C24-1</f>
+        <f t="shared" si="3"/>
         <v>3.3671887574014514E-2</v>
       </c>
       <c r="D35" s="10">
-        <f>D25/D24-1</f>
+        <f t="shared" si="3"/>
         <v>4.0254473433762428E-2</v>
       </c>
       <c r="E35" s="10">
-        <f>E25/E24-1</f>
+        <f t="shared" si="3"/>
         <v>2.548315234814913E-2</v>
       </c>
       <c r="F35" s="10">
-        <f>F25/F24-1</f>
+        <f t="shared" si="3"/>
         <v>2.7109761888610029E-2</v>
       </c>
       <c r="G35" s="10">
-        <f>G25/G24-1</f>
+        <f t="shared" si="3"/>
         <v>2.2764694458283108E-2</v>
       </c>
       <c r="H35" s="10">
-        <f>H25/H24-1</f>
+        <f t="shared" si="3"/>
         <v>3.1466470154753123E-2</v>
       </c>
       <c r="I35" s="10">
-        <f>I25/I24-1</f>
+        <f t="shared" si="3"/>
         <v>3.6281255811594582E-2</v>
       </c>
       <c r="J35" s="10">
-        <f>J25/J24-1</f>
+        <f t="shared" si="3"/>
         <v>5.7683736028997679E-2</v>
       </c>
       <c r="K35" s="10">
-        <f>K25/K24-1</f>
+        <f t="shared" si="3"/>
         <v>3.000170741424224E-3</v>
       </c>
       <c r="L35" s="10">
-        <f>L25/L24-1</f>
+        <f t="shared" si="3"/>
         <v>3.156319744552083E-2</v>
       </c>
       <c r="M35" s="10">
-        <f>M25/M24-1</f>
+        <f t="shared" si="3"/>
         <v>5.7271329809533977E-2</v>
       </c>
       <c r="N35" s="14">
-        <f>N25/N24-1</f>
+        <f t="shared" si="3"/>
         <v>2.9210166879473531E-2</v>
       </c>
     </row>
@@ -4789,55 +4801,55 @@
         <v>38</v>
       </c>
       <c r="B36" s="10">
-        <f>B26/B25-1</f>
+        <f t="shared" ref="B36:N36" si="4">B26/B25-1</f>
         <v>4.1017567119655318E-2</v>
       </c>
       <c r="C36" s="10">
-        <f>C26/C25-1</f>
+        <f t="shared" si="4"/>
         <v>4.3146542540114519E-2</v>
       </c>
       <c r="D36" s="10">
-        <f>D26/D25-1</f>
+        <f t="shared" si="4"/>
         <v>3.3545430568376666E-2</v>
       </c>
       <c r="E36" s="10">
-        <f>E26/E25-1</f>
+        <f t="shared" si="4"/>
         <v>8.9860439763045363E-3</v>
       </c>
       <c r="F36" s="10">
-        <f>F26/F25-1</f>
+        <f t="shared" si="4"/>
         <v>3.9174406604747247E-2</v>
       </c>
       <c r="G36" s="10">
-        <f>G26/G25-1</f>
+        <f t="shared" si="4"/>
         <v>7.5508771929824636E-2</v>
       </c>
       <c r="H36" s="10">
-        <f>H26/H25-1</f>
+        <f t="shared" si="4"/>
         <v>-1.3415573178380269E-3</v>
       </c>
       <c r="I36" s="10">
-        <f>I26/I25-1</f>
+        <f t="shared" si="4"/>
         <v>3.5614650460885855E-2</v>
       </c>
       <c r="J36" s="10">
-        <f>J26/J25-1</f>
+        <f t="shared" si="4"/>
         <v>3.5748930553567648E-2</v>
       </c>
       <c r="K36" s="10">
-        <f>K26/K25-1</f>
+        <f t="shared" si="4"/>
         <v>2.3426987240803498E-2</v>
       </c>
       <c r="L36" s="10">
-        <f>L26/L25-1</f>
+        <f t="shared" si="4"/>
         <v>3.1156560704648895E-2</v>
       </c>
       <c r="M36" s="10">
-        <f>M26/M25-1</f>
+        <f t="shared" si="4"/>
         <v>2.896995708154515E-2</v>
       </c>
       <c r="N36" s="14">
-        <f>N26/N25-1</f>
+        <f t="shared" si="4"/>
         <v>3.3294907988642652E-2</v>
       </c>
     </row>
@@ -4846,55 +4858,55 @@
         <v>39</v>
       </c>
       <c r="B37" s="10">
-        <f>B27/B26-1</f>
+        <f t="shared" ref="B37:N37" si="5">B27/B26-1</f>
         <v>1.5195415107856602E-2</v>
       </c>
       <c r="C37" s="10">
-        <f>C27/C26-1</f>
+        <f t="shared" si="5"/>
         <v>3.4652881979087224E-2</v>
       </c>
       <c r="D37" s="10">
-        <f>D27/D26-1</f>
+        <f t="shared" si="5"/>
         <v>2.9721367166940516E-2</v>
       </c>
       <c r="E37" s="10">
-        <f>E27/E26-1</f>
+        <f t="shared" si="5"/>
         <v>4.4426789544768308E-2</v>
       </c>
       <c r="F37" s="10">
-        <f>F27/F26-1</f>
+        <f t="shared" si="5"/>
         <v>1.0590291570668153E-2</v>
       </c>
       <c r="G37" s="10">
-        <f>G27/G26-1</f>
+        <f t="shared" si="5"/>
         <v>-2.875544058155699E-2</v>
       </c>
       <c r="H37" s="10">
-        <f>H27/H26-1</f>
+        <f t="shared" si="5"/>
         <v>2.0412705478363158E-2</v>
       </c>
       <c r="I37" s="10">
-        <f>I27/I26-1</f>
+        <f t="shared" si="5"/>
         <v>5.9343394561895524E-2</v>
       </c>
       <c r="J37" s="10">
-        <f>J27/J26-1</f>
+        <f t="shared" si="5"/>
         <v>6.9091523237796437E-4</v>
       </c>
       <c r="K37" s="10">
-        <f>K27/K26-1</f>
+        <f t="shared" si="5"/>
         <v>3.1405443082089812E-2</v>
       </c>
       <c r="L37" s="10">
-        <f>L27/L26-1</f>
+        <f t="shared" si="5"/>
         <v>6.6567652097380137E-2</v>
       </c>
       <c r="M37" s="10">
-        <f>M27/M26-1</f>
+        <f t="shared" si="5"/>
         <v>-1.2845506339642654E-4</v>
       </c>
       <c r="N37" s="14">
-        <f>N27/N26-1</f>
+        <f t="shared" si="5"/>
         <v>2.3435129479466354E-2</v>
       </c>
     </row>
@@ -4903,55 +4915,55 @@
         <v>40</v>
       </c>
       <c r="B38" s="10">
-        <f>B28/B27-1</f>
+        <f t="shared" ref="B38:N38" si="6">B28/B27-1</f>
         <v>6.1698774492507935E-2</v>
       </c>
       <c r="C38" s="10">
-        <f>C28/C27-1</f>
+        <f t="shared" si="6"/>
         <v>2.1487904511700684E-2</v>
       </c>
       <c r="D38" s="10">
-        <f>D28/D27-1</f>
+        <f t="shared" si="6"/>
         <v>3.3881897386253579E-2</v>
       </c>
       <c r="E38" s="10">
-        <f>E28/E27-1</f>
+        <f t="shared" si="6"/>
         <v>3.2267879691469936E-2</v>
       </c>
       <c r="F38" s="10">
-        <f>F28/F27-1</f>
+        <f t="shared" si="6"/>
         <v>0.11412466687106448</v>
       </c>
       <c r="G38" s="10">
-        <f>G28/G27-1</f>
+        <f t="shared" si="6"/>
         <v>8.6710136336692445E-2</v>
       </c>
       <c r="H38" s="10">
-        <f>H28/H27-1</f>
+        <f t="shared" si="6"/>
         <v>7.3466176424765495E-2</v>
       </c>
       <c r="I38" s="10">
-        <f>I28/I27-1</f>
+        <f t="shared" si="6"/>
         <v>5.7654844226336488E-2</v>
       </c>
       <c r="J38" s="10">
-        <f>J28/J27-1</f>
+        <f t="shared" si="6"/>
         <v>4.4725052166441515E-2</v>
       </c>
       <c r="K38" s="10">
-        <f>K28/K27-1</f>
+        <f t="shared" si="6"/>
         <v>6.0245590053525921E-2</v>
       </c>
       <c r="L38" s="10">
-        <f>L28/L27-1</f>
+        <f t="shared" si="6"/>
         <v>4.5975317738073951E-3</v>
       </c>
       <c r="M38" s="10">
-        <f>M28/M27-1</f>
+        <f t="shared" si="6"/>
         <v>4.3408275080294878E-2</v>
       </c>
       <c r="N38" s="14">
-        <f>N28/N27-1</f>
+        <f t="shared" si="6"/>
         <v>5.2415374205210474E-2</v>
       </c>
     </row>
@@ -4964,51 +4976,51 @@
         <v>5.1075268817204256E-2</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" ref="C39:N39" si="0">C29/C28-1</f>
+        <f t="shared" ref="C39:N40" si="7">C29/C28-1</f>
         <v>2.4254452472274313E-2</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2.932584269662919E-2</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-2.1517420267641585E-3</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-2.1069714930849637E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-1.4051317856519363E-2</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-7.5470055078625808E-3</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-3.6423328927757903E-2</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.3070743563760256E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3.3492199156900604E-2</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.8665336746144012E-2</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7.9090889337938286E-3</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7.713095201233422E-3</v>
       </c>
     </row>
@@ -5016,20 +5028,28 @@
       <c r="A40" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="B40" s="10">
+        <f>B30/B29-1</f>
+        <v>1.6933194682555719E-3</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" si="7"/>
+        <v>1.3984542254798837E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED8D4C6-B539-48F6-A1ED-0F0C46BC4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F761E-78F2-4501-9996-D3A98E0E4402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1050" windowWidth="17985" windowHeight="9795" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18780" windowHeight="9795" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1579,9 +1579,11 @@
         <v>42.43</v>
       </c>
       <c r="C29" s="7">
-        <v>42.34</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>42.08</v>
+      </c>
+      <c r="D29" s="7">
+        <v>41.84</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2119,9 +2121,12 @@
       </c>
       <c r="C40" s="10">
         <f t="shared" si="9"/>
-        <v>2.3199613339777603E-2</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>1.6916384726921141E-2</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="9"/>
+        <v>1.0872191350567828E-2</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2135,16 +2140,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2160,7 +2165,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2170,54 +2175,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2226,10 +2231,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2238,10 +2243,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2250,10 +2255,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2262,10 +2267,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2274,10 +2279,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2286,10 +2291,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3053,7 +3058,9 @@
       <c r="C30" s="19">
         <v>33</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="19">
+        <v>32.799999999999997</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -3606,7 +3613,10 @@
         <f t="shared" si="9"/>
         <v>-9.009009009008917E-3</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.2048192771084487E-2</v>
+      </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3646,7 +3656,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3657,114 +3667,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3773,10 +3783,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4538,9 +4548,11 @@
         <v>1425.65</v>
       </c>
       <c r="C30" s="11">
-        <v>1397.22</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>1388.64</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1372.35</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -5034,22 +5046,26 @@
       </c>
       <c r="C40" s="10">
         <f t="shared" si="7"/>
-        <v>1.3984542254798837E-2</v>
+        <v>7.7579012300881267E-3</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.309900665866337E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F761E-78F2-4501-9996-D3A98E0E4402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BDDC81-6B88-4825-89B2-29209E697540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18780" windowHeight="9795" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="570" windowWidth="18780" windowHeight="10350" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1582,9 +1582,11 @@
         <v>42.08</v>
       </c>
       <c r="D29" s="7">
-        <v>41.84</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>40.090000000000003</v>
+      </c>
+      <c r="E29" s="7">
+        <v>42.71</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2125,9 +2127,12 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" si="9"/>
-        <v>1.0872191350567828E-2</v>
-      </c>
-      <c r="E40" s="10"/>
+        <v>-3.140855279052901E-2</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="9"/>
+        <v>4.3999022243950137E-2</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -2140,16 +2145,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2164,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -2175,54 +2180,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2231,10 +2236,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2243,10 +2248,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2255,10 +2260,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2267,10 +2272,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2279,10 +2284,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2291,10 +2296,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3061,7 +3066,9 @@
       <c r="D30" s="19">
         <v>32.799999999999997</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19">
+        <v>33.200000000000003</v>
+      </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -3617,7 +3624,10 @@
         <f t="shared" si="9"/>
         <v>-1.2048192771084487E-2</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <f t="shared" si="9"/>
+        <v>3.0211480362538623E-3</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3655,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3667,114 +3677,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3783,10 +3793,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4551,9 +4561,11 @@
         <v>1388.64</v>
       </c>
       <c r="D30" s="11">
-        <v>1372.35</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>1368.42</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1412.66</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -5050,22 +5062,26 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" si="7"/>
-        <v>-1.309900665866337E-3</v>
+        <v>-4.1698504530073288E-3</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="7"/>
+        <v>4.3231028269282046E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BDDC81-6B88-4825-89B2-29209E697540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D1F33-8D8E-4B68-8CEB-FBA0063BEB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="570" windowWidth="18780" windowHeight="10350" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="11970" windowHeight="9660" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1587,7 +1587,9 @@
       <c r="E29" s="7">
         <v>42.71</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>41.59</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -2133,7 +2135,10 @@
         <f t="shared" si="9"/>
         <v>4.3999022243950137E-2</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10">
+        <f t="shared" si="9"/>
+        <v>7.2656817631389092E-3</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -2145,16 +2150,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2170,7 +2175,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2180,54 +2185,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2236,10 +2241,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2248,10 +2253,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2260,10 +2265,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2272,10 +2277,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2284,10 +2289,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2296,10 +2301,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3067,9 +3072,11 @@
         <v>32.799999999999997</v>
       </c>
       <c r="E30" s="19">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F30" s="19"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F30" s="19">
+        <v>32.700000000000003</v>
+      </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -3626,9 +3633,12 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" si="9"/>
-        <v>3.0211480362538623E-3</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>6.0422960725075026E-3</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.6785714285714191E-2</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -3666,7 +3676,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3677,114 +3687,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3793,10 +3803,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4564,9 +4574,11 @@
         <v>1368.42</v>
       </c>
       <c r="E30" s="11">
-        <v>1412.66</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>1422.24</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1359.99</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -5066,22 +5078,26 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" si="7"/>
-        <v>4.3231028269282046E-2</v>
+        <v>5.0305733612973746E-2</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.9713985036112214E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D1F33-8D8E-4B68-8CEB-FBA0063BEB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A42E87-FB44-408C-987F-FF26CF022418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="11970" windowHeight="9660" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="900" windowWidth="18330" windowHeight="9660" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1582,15 +1582,17 @@
         <v>42.08</v>
       </c>
       <c r="D29" s="7">
-        <v>40.090000000000003</v>
+        <v>41.72</v>
       </c>
       <c r="E29" s="7">
         <v>42.71</v>
       </c>
       <c r="F29" s="7">
-        <v>41.59</v>
-      </c>
-      <c r="G29" s="7"/>
+        <v>41.66</v>
+      </c>
+      <c r="G29" s="7">
+        <v>41.43</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2129,7 +2131,7 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" si="9"/>
-        <v>-3.140855279052901E-2</v>
+        <v>7.9729403237496221E-3</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="9"/>
@@ -2137,9 +2139,12 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="9"/>
-        <v>7.2656817631389092E-3</v>
-      </c>
-      <c r="G40" s="10"/>
+        <v>8.9610075078709883E-3</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="9"/>
+        <v>1.7686072218128235E-2</v>
+      </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -2150,16 +2155,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2175,7 +2180,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2185,54 +2190,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2241,10 +2246,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2253,10 +2258,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2265,10 +2270,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2277,10 +2282,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2289,10 +2294,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2301,10 +2306,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3077,7 +3082,9 @@
       <c r="F30" s="19">
         <v>32.700000000000003</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="19">
+        <v>32.6</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -3639,7 +3646,10 @@
         <f t="shared" si="9"/>
         <v>-2.6785714285714191E-2</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.102102102102088E-2</v>
+      </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -3676,7 +3686,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3687,114 +3697,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3803,10 +3813,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4577,9 +4587,11 @@
         <v>1422.24</v>
       </c>
       <c r="F30" s="11">
-        <v>1359.99</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>1362.28</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1350.62</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -5082,22 +5094,26 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="7"/>
-        <v>-1.9713985036112214E-2</v>
+        <v>-1.8063344241498025E-2</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="7"/>
+        <v>-3.7030480068456217E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A42E87-FB44-408C-987F-FF26CF022418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D1A05-88EC-4EE5-9F17-8E43EAB1C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="900" windowWidth="18330" windowHeight="9660" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="525" windowWidth="14160" windowHeight="9060" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1591,9 +1591,11 @@
         <v>41.66</v>
       </c>
       <c r="G29" s="7">
-        <v>41.43</v>
-      </c>
-      <c r="H29" s="7"/>
+        <v>41.49</v>
+      </c>
+      <c r="H29" s="7">
+        <v>42.69</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2143,9 +2145,12 @@
       </c>
       <c r="G40" s="10">
         <f t="shared" si="9"/>
-        <v>1.7686072218128235E-2</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>1.9159911569639032E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="9"/>
+        <v>3.9444850255661024E-2</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2155,16 +2160,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2180,7 +2185,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2190,54 +2195,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2246,10 +2251,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2258,10 +2263,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2270,10 +2275,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2282,10 +2287,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2294,10 +2299,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2306,10 +2311,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3083,9 +3088,11 @@
         <v>32.700000000000003</v>
       </c>
       <c r="G30" s="19">
-        <v>32.6</v>
-      </c>
-      <c r="H30" s="19"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H30" s="19">
+        <v>32.799999999999997</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -3648,9 +3655,12 @@
       </c>
       <c r="G41" s="10">
         <f t="shared" si="9"/>
-        <v>-2.102102102102088E-2</v>
-      </c>
-      <c r="H41" s="10"/>
+        <v>-3.0030030030030019E-2</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.501501501501501E-2</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -3686,7 +3696,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3697,114 +3707,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3813,10 +3823,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4590,9 +4600,11 @@
         <v>1362.28</v>
       </c>
       <c r="G30" s="11">
-        <v>1350.62</v>
-      </c>
-      <c r="H30" s="11"/>
+        <v>1340.13</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1400.23</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -5098,22 +5110,26 @@
       </c>
       <c r="G40" s="10">
         <f t="shared" si="7"/>
-        <v>-3.7030480068456217E-3</v>
+        <v>-1.1441090555014632E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="7"/>
+        <v>2.3836856459714895E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D1A05-88EC-4EE5-9F17-8E43EAB1C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE200F-73D4-416C-97E9-8234715F6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="525" windowWidth="14160" windowHeight="9060" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1350" windowWidth="14160" windowHeight="9060" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1594,9 +1594,11 @@
         <v>41.49</v>
       </c>
       <c r="H29" s="7">
-        <v>42.69</v>
-      </c>
-      <c r="I29" s="7"/>
+        <v>42.53</v>
+      </c>
+      <c r="I29" s="7">
+        <v>41.39</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2149,9 +2151,12 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" si="9"/>
-        <v>3.9444850255661024E-2</v>
-      </c>
-      <c r="I40" s="10"/>
+        <v>3.5549062576089696E-2</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="9"/>
+        <v>5.5879494655006745E-3</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -2160,16 +2165,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2184,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2195,54 +2200,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2251,10 +2256,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2263,10 +2268,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2275,10 +2280,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2287,10 +2292,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2299,10 +2304,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2311,10 +2316,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3093,7 +3098,9 @@
       <c r="H30" s="19">
         <v>32.799999999999997</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="19">
+        <v>32.4</v>
+      </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
@@ -3661,7 +3668,10 @@
         <f t="shared" si="9"/>
         <v>-1.501501501501501E-2</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.7027027027026973E-2</v>
+      </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -3707,114 +3717,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3823,10 +3833,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4603,9 +4613,11 @@
         <v>1340.13</v>
       </c>
       <c r="H30" s="11">
-        <v>1400.23</v>
-      </c>
-      <c r="I30" s="11"/>
+        <v>1394.98</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1341.04</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -5114,22 +5126,26 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" si="7"/>
-        <v>2.3836856459714895E-2</v>
+        <v>1.9998098901018446E-2</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.1588612535841323E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE200F-73D4-416C-97E9-8234715F6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0256758-D2C0-4BF7-8445-DF7236C86492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1350" windowWidth="14160" windowHeight="9060" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="345" windowWidth="19185" windowHeight="10275" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1597,9 +1597,11 @@
         <v>42.53</v>
       </c>
       <c r="I29" s="7">
-        <v>41.39</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>41.5</v>
+      </c>
+      <c r="J29" s="7">
+        <v>41.57</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2155,9 +2157,12 @@
       </c>
       <c r="I40" s="10">
         <f t="shared" si="9"/>
-        <v>5.5879494655006745E-3</v>
-      </c>
-      <c r="J40" s="10"/>
+        <v>8.2604470359572968E-3</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="9"/>
+        <v>3.3791938209026817E-3</v>
+      </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -2165,16 +2170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2189,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2200,54 +2205,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2256,10 +2261,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2268,10 +2273,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2280,10 +2285,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2292,10 +2297,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2304,10 +2309,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2316,10 +2321,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3101,7 +3106,9 @@
       <c r="I30" s="19">
         <v>32.4</v>
       </c>
-      <c r="J30" s="19"/>
+      <c r="J30" s="19">
+        <v>32.299999999999997</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -3672,7 +3679,10 @@
         <f t="shared" si="9"/>
         <v>-2.7027027027026973E-2</v>
       </c>
-      <c r="J41" s="10"/>
+      <c r="J41" s="10">
+        <f t="shared" si="9"/>
+        <v>-3.0030030030030019E-2</v>
+      </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -3706,7 +3716,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3717,114 +3727,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3833,10 +3843,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4616,9 +4626,11 @@
         <v>1394.98</v>
       </c>
       <c r="I30" s="11">
-        <v>1341.04</v>
-      </c>
-      <c r="J30" s="11"/>
+        <v>1344.6</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1342.71</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -5130,22 +5142,26 @@
       </c>
       <c r="I40" s="10">
         <f t="shared" si="7"/>
-        <v>-2.1588612535841323E-2</v>
+        <v>-1.8991266789724626E-2</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.6753743784520223E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0256758-D2C0-4BF7-8445-DF7236C86492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7CE4D-BC97-4881-920B-4E8C1761E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="345" windowWidth="19185" windowHeight="10275" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1600,9 +1600,11 @@
         <v>41.5</v>
       </c>
       <c r="J29" s="7">
-        <v>41.57</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>41.66</v>
+      </c>
+      <c r="K29" s="7">
+        <v>42</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="12"/>
@@ -2161,25 +2163,28 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" si="9"/>
-        <v>3.3791938209026817E-3</v>
-      </c>
-      <c r="K40" s="10"/>
+        <v>5.5515327057686914E-3</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="9"/>
+        <v>-8.0302314596127911E-3</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2195,7 +2200,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2205,54 +2210,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2261,10 +2266,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2273,10 +2278,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2285,10 +2290,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2297,10 +2302,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2309,10 +2314,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2321,10 +2326,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3107,9 +3112,11 @@
         <v>32.4</v>
       </c>
       <c r="J30" s="19">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="K30" s="19"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K30" s="19">
+        <v>32.9</v>
+      </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -3681,9 +3688,12 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="9"/>
-        <v>-3.0030030030030019E-2</v>
-      </c>
-      <c r="K41" s="10"/>
+        <v>-3.3033033033032844E-2</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.3738872403560984E-2</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="14"/>
@@ -3716,7 +3726,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3727,114 +3737,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3843,10 +3853,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4629,9 +4639,11 @@
         <v>1344.6</v>
       </c>
       <c r="J30" s="11">
-        <v>1342.71</v>
-      </c>
-      <c r="K30" s="11"/>
+        <v>1341.45</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1381.8</v>
+      </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="16"/>
@@ -5146,22 +5158,26 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" si="7"/>
-        <v>-2.6753743784520223E-2</v>
+        <v>-2.7667038749800588E-2</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="7"/>
+        <v>-3.1579832639502037E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7CE4D-BC97-4881-920B-4E8C1761E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3105634-92E0-4C73-A277-0CB7ED6F3DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="465" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1603,9 +1603,11 @@
         <v>41.66</v>
       </c>
       <c r="K29" s="7">
-        <v>42</v>
-      </c>
-      <c r="L29" s="7"/>
+        <v>41.96</v>
+      </c>
+      <c r="L29" s="7">
+        <v>41.66</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="12"/>
     </row>
@@ -2167,24 +2169,27 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="9"/>
-        <v>-8.0302314596127911E-3</v>
-      </c>
-      <c r="L40" s="10"/>
+        <v>-8.9749645725083482E-3</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.1987532965717085E-3</v>
+      </c>
       <c r="M40" s="10"/>
       <c r="N40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2210,54 +2215,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2266,10 +2271,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2278,10 +2283,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2290,10 +2295,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2302,10 +2307,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2314,10 +2319,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2326,10 +2331,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3115,9 +3120,11 @@
         <v>32.200000000000003</v>
       </c>
       <c r="K30" s="19">
-        <v>32.9</v>
-      </c>
-      <c r="L30" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="L30" s="19">
+        <v>32.5</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
@@ -3692,9 +3699,12 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="9"/>
-        <v>-2.3738872403560984E-2</v>
-      </c>
-      <c r="L41" s="10"/>
+        <v>-2.0771513353115778E-2</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.4024024024023927E-2</v>
+      </c>
       <c r="M41" s="10"/>
       <c r="N41" s="14"/>
     </row>
@@ -3726,7 +3736,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3737,114 +3747,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3853,10 +3863,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4642,9 +4652,11 @@
         <v>1341.45</v>
       </c>
       <c r="K30" s="11">
-        <v>1381.8</v>
-      </c>
-      <c r="L30" s="11"/>
+        <v>1384.68</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1353.95</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="16"/>
     </row>
@@ -5162,22 +5174,26 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="7"/>
-        <v>-3.1579832639502037E-2</v>
+        <v>-2.9561414574660327E-2</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.5191872939075877E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3105634-92E0-4C73-A277-0CB7ED6F3DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1AA8A0-1546-40C5-B8EF-3B89B8478058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="465" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1606,10 +1606,15 @@
         <v>41.96</v>
       </c>
       <c r="L29" s="7">
-        <v>41.66</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="12"/>
+        <v>41.5</v>
+      </c>
+      <c r="M29" s="7">
+        <v>41.57</v>
+      </c>
+      <c r="N29" s="12">
+        <f>AVERAGE(B29:M29)</f>
+        <v>41.900833333333331</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N30" s="13"/>
@@ -2173,23 +2178,29 @@
       </c>
       <c r="L40" s="10">
         <f t="shared" si="9"/>
-        <v>-1.1987532965717085E-3</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="14"/>
+        <v>-5.0347638456006427E-3</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="9"/>
+        <v>-5.2644173247188286E-3</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" si="9"/>
+        <v>1.1608723643972363E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2215,54 +2226,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2271,10 +2282,10 @@
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2283,10 +2294,10 @@
       <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2295,10 +2306,10 @@
       <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2307,10 +2318,10 @@
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2319,10 +2330,10 @@
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2331,10 +2342,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3125,8 +3136,13 @@
       <c r="L30" s="19">
         <v>32.5</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="M30" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N30" s="20">
+        <f>AVERAGE(B30:M30)</f>
+        <v>32.774999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -3705,8 +3721,14 @@
         <f t="shared" si="9"/>
         <v>-2.4024024024023927E-2</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="14"/>
+      <c r="M41" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.8018018018017834E-2</v>
+      </c>
+      <c r="N41" s="14">
+        <f t="shared" si="9"/>
+        <v>-1.8467681557274962E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3736,7 +3758,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3747,114 +3769,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3863,10 +3885,10 @@
       <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4655,10 +4677,15 @@
         <v>1384.68</v>
       </c>
       <c r="L30" s="11">
-        <v>1353.95</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="16"/>
+        <v>1348.75</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1359.34</v>
+      </c>
+      <c r="N30" s="16">
+        <f>AVERAGE(B30:M30)</f>
+        <v>1373.43</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
@@ -5178,22 +5205,30 @@
       </c>
       <c r="L40" s="10">
         <f t="shared" si="7"/>
-        <v>-2.5191872939075877E-2</v>
+        <v>-2.8935735164945964E-2</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.3188968173554314E-2</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" si="7"/>
+        <v>-7.0232495648501203E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1AA8A0-1546-40C5-B8EF-3B89B8478058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77CC94-66D6-4840-83A1-23FD4F0AF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="450" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -164,7 +164,10 @@
     <t>% Change 2022-2023</t>
   </si>
   <si>
-    <t>2007 to 2023</t>
+    <t>% Change 2023-2024</t>
+  </si>
+  <si>
+    <t>2007 to 2024</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -323,6 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -366,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,9 +410,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,26 +445,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,26 +480,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1603,591 +1573,653 @@
         <v>41.66</v>
       </c>
       <c r="K29" s="7">
-        <v>41.96</v>
+        <v>41.89</v>
       </c>
       <c r="L29" s="7">
-        <v>41.5</v>
+        <v>41.56</v>
       </c>
       <c r="M29" s="7">
-        <v>41.57</v>
+        <v>41.86</v>
       </c>
       <c r="N29" s="12">
         <f>AVERAGE(B29:M29)</f>
-        <v>41.900833333333331</v>
+        <v>41.924166666666665</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N30" s="13"/>
+      <c r="A30" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B30" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>42.28</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="10">
-        <f t="shared" ref="B31:N31" si="1">B20/B19-1</f>
+      <c r="B32" s="10">
+        <f t="shared" ref="B32:N32" si="1">B20/B19-1</f>
         <v>9.3341630367138606E-4</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C32" s="10">
         <f t="shared" si="1"/>
         <v>2.1929824561403466E-2</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <f t="shared" si="1"/>
         <v>2.5165146272412953E-2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>1.6604010025062621E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="1"/>
         <v>2.0170185943901631E-2</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="1"/>
         <v>2.3306401491609785E-2</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="1"/>
         <v>1.1533665835411711E-2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <f t="shared" si="1"/>
         <v>1.0341585709808809E-2</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <f t="shared" si="1"/>
         <v>5.5624227441284368E-3</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <f t="shared" si="1"/>
         <v>3.0701754385964897E-2</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L32" s="10">
         <f t="shared" si="1"/>
         <v>5.3125000000000089E-2</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M32" s="10">
         <f t="shared" si="1"/>
         <v>1.7554665845395778E-2</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <f t="shared" si="1"/>
         <v>1.9558884727423953E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="2">B21/B20-1</f>
+      <c r="B33" s="10">
+        <f t="shared" ref="B33:N33" si="2">B21/B20-1</f>
         <v>4.4451352191482663E-2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="2"/>
         <v>4.1998773758430641E-2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="2"/>
         <v>4.1730592206198125E-2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="2"/>
         <v>4.0061633281972098E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="2"/>
         <v>3.2746370095767752E-2</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="2"/>
         <v>1.305800182204675E-2</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="2"/>
         <v>2.7734976887519247E-2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="2"/>
         <v>5.241935483870952E-2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <f t="shared" si="2"/>
         <v>3.3189920098340542E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <f t="shared" si="2"/>
         <v>1.9452887537994012E-2</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L33" s="10">
         <f t="shared" si="2"/>
         <v>1.6023738872403603E-2</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M33" s="10">
         <f t="shared" si="2"/>
         <v>1.3922518159806385E-2</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <f t="shared" si="2"/>
         <v>3.1275510204081813E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:N33" si="3">B22/B21-1</f>
+      <c r="B34" s="10">
+        <f t="shared" ref="B34:N34" si="3">B22/B21-1</f>
         <v>7.7380952380952106E-3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <f t="shared" si="3"/>
         <v>4.1188584877904777E-3</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="3"/>
         <v>-7.9528718703977264E-3</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="3"/>
         <v>-1.1555555555555541E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="3"/>
         <v>1.525575830092718E-2</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <f t="shared" si="3"/>
         <v>-4.4964028776978138E-3</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="3"/>
         <v>8.9955022488754643E-3</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="3"/>
         <v>1.2967875036840493E-2</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <f t="shared" si="3"/>
         <v>1.3384889946460587E-2</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="3"/>
         <v>3.4585569469290478E-2</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L34" s="10">
         <f t="shared" si="3"/>
         <v>-3.5046728971963592E-3</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="3"/>
         <v>1.4029850746268613E-2</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <f t="shared" si="3"/>
         <v>6.9262355909562867E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:N34" si="4">B23/B22-1</f>
+      <c r="B35" s="10">
+        <f t="shared" ref="B35:N35" si="4">B23/B22-1</f>
         <v>3.7212049616066167E-2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C35" s="10">
         <f t="shared" si="4"/>
         <v>2.6369762672135977E-2</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="4"/>
         <v>3.6817102137767233E-2</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="4"/>
         <v>6.6247002398081456E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="4"/>
         <v>2.7990571596935965E-2</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="4"/>
         <v>4.5769346582354542E-2</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="4"/>
         <v>5.2005943536404198E-2</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="4"/>
         <v>6.4009310445156675E-3</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <f t="shared" si="4"/>
         <v>2.3481068388611526E-2</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <f t="shared" si="4"/>
         <v>2.7377521613832778E-2</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L35" s="10">
         <f t="shared" si="4"/>
         <v>3.4290738569753954E-2</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="4"/>
         <v>4.7100382690609344E-2</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <f t="shared" si="4"/>
         <v>3.579324915245885E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:N35" si="5">B24/B23-1</f>
+      <c r="B37" s="10">
+        <f t="shared" ref="B37:N37" si="5">B24/B23-1</f>
         <v>1.9646924829157308E-2</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C37" s="10">
         <f t="shared" si="5"/>
         <v>2.4550385383956597E-2</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="5"/>
         <v>2.4914089347078949E-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E37" s="10">
         <f t="shared" si="5"/>
         <v>2.2490863086870982E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F37" s="10">
         <f t="shared" si="5"/>
         <v>2.407566638005143E-2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G37" s="10">
         <f t="shared" si="5"/>
         <v>2.879355024474517E-2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H37" s="10">
         <f t="shared" si="5"/>
         <v>3.446327683615813E-2</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I37" s="10">
         <f t="shared" si="5"/>
         <v>3.9317721884937873E-2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J37" s="10">
         <f t="shared" si="5"/>
         <v>4.8465729853742534E-2</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K37" s="10">
         <f t="shared" si="5"/>
         <v>2.0757363253856909E-2</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L37" s="10">
         <f t="shared" si="5"/>
         <v>3.7687730235194117E-2</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M37" s="10">
         <f t="shared" si="5"/>
         <v>4.8074219848186717E-2</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N37" s="14">
         <f t="shared" si="5"/>
         <v>3.1093612883333677E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="38" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="10">
-        <f t="shared" ref="B36:N36" si="6">B25/B24-1</f>
+      <c r="B38" s="10">
+        <f t="shared" ref="B38:N38" si="6">B25/B24-1</f>
         <v>4.4121753700083755E-2</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C38" s="10">
         <f t="shared" si="6"/>
         <v>4.931735859570896E-2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="6"/>
         <v>3.9675887119307029E-2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="6"/>
         <v>2.6945284575199402E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="6"/>
         <v>4.534005037783384E-2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="6"/>
         <v>6.2972292191435741E-2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="6"/>
         <v>1.6384489350081965E-2</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="6"/>
         <v>4.1724617524339314E-2</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J38" s="10">
         <f t="shared" si="6"/>
         <v>4.48577680525164E-2</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K38" s="10">
         <f t="shared" si="6"/>
         <v>3.8746908491343657E-2</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L38" s="10">
         <f t="shared" si="6"/>
         <v>4.0415073730202256E-2</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="6"/>
         <v>4.1040772532188852E-2</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N38" s="14">
         <f t="shared" si="6"/>
         <v>4.0898008004784492E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10">
-        <f t="shared" ref="B37:N37" si="7">B26/B25-1</f>
+      <c r="B39" s="10">
+        <f t="shared" ref="B39:N39" si="7">B26/B25-1</f>
         <v>2.4338058304359311E-2</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C39" s="10">
         <f t="shared" si="7"/>
         <v>3.1598513011152463E-2</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="7"/>
         <v>3.2786885245901676E-2</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E39" s="10">
         <f t="shared" si="7"/>
         <v>7.3092369477911534E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F39" s="10">
         <f t="shared" si="7"/>
         <v>2.8915662650602414E-2</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G39" s="10">
         <f t="shared" si="7"/>
         <v>3.4228541337546492E-3</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H39" s="10">
         <f t="shared" si="7"/>
         <v>2.9554003224073089E-2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I39" s="10">
         <f t="shared" si="7"/>
         <v>4.6995994659545959E-2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J39" s="10">
         <f t="shared" si="7"/>
         <v>1.2565445026177846E-2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K39" s="10">
         <f t="shared" si="7"/>
         <v>2.2222222222222365E-2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L39" s="10">
         <f t="shared" si="7"/>
         <v>3.8582677165354351E-2</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="7"/>
         <v>1.7778922958000543E-2</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N39" s="14">
         <f t="shared" si="7"/>
         <v>3.0053920268717338E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="10">
-        <f t="shared" ref="B38:N38" si="8">B27/B26-1</f>
+      <c r="B40" s="10">
+        <f t="shared" ref="B40:N40" si="8">B27/B26-1</f>
         <v>5.2219321148825104E-2</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C40" s="10">
         <f t="shared" si="8"/>
         <v>3.9897039897039743E-2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D40" s="10">
         <f t="shared" si="8"/>
         <v>4.3195420244600768E-2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E40" s="10">
         <f t="shared" si="8"/>
         <v>1.3722554890219563E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F40" s="10">
         <f t="shared" si="8"/>
         <v>8.1446786364819168E-2</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G40" s="10">
         <f t="shared" si="8"/>
         <v>7.0585148255051022E-2</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="8"/>
         <v>6.3935281837160796E-2</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="8"/>
         <v>5.1517470033154655E-2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J40" s="10">
         <f t="shared" si="8"/>
         <v>4.4725956566701086E-2</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K40" s="10">
         <f t="shared" si="8"/>
         <v>6.3405797101449446E-2</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L40" s="10">
         <f t="shared" si="8"/>
         <v>2.5524387161991458E-2</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M40" s="10">
         <f t="shared" si="8"/>
         <v>3.7215189873417653E-2</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N40" s="14">
         <f t="shared" si="8"/>
         <v>4.872135930661603E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="10">
-        <f>B28/B27-1</f>
+      <c r="B41" s="10">
+        <f t="shared" ref="B41:N41" si="9">B28/B27-1</f>
         <v>3.8709677419354938E-2</v>
       </c>
-      <c r="C39" s="10">
-        <f t="shared" ref="C39:N40" si="9">C28/C27-1</f>
+      <c r="C41" s="10">
+        <f t="shared" si="9"/>
         <v>2.4257425742574279E-2</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="9"/>
         <v>3.2427039161885718E-2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E41" s="10">
         <f t="shared" si="9"/>
         <v>6.8914595126752243E-3</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F41" s="10">
         <f t="shared" si="9"/>
         <v>-6.4966313763235028E-3</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G41" s="10">
         <f t="shared" si="9"/>
         <v>-2.2058823529410576E-3</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H41" s="10">
         <f t="shared" si="9"/>
         <v>7.3583517292126199E-3</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I41" s="10">
         <f t="shared" si="9"/>
         <v>-1.6977928692699651E-3</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J41" s="10">
         <f t="shared" si="9"/>
         <v>2.5241276911655675E-2</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K41" s="10">
         <f t="shared" si="9"/>
         <v>3.042102701387206E-2</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L41" s="10">
         <f t="shared" si="9"/>
         <v>2.7846229669788114E-2</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M41" s="10">
         <f t="shared" si="9"/>
         <v>2.0014644862094144E-2</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N41" s="14">
         <f t="shared" si="9"/>
         <v>1.6795204876951075E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B42" s="10">
         <f>B29/B28-1</f>
         <v>1.361681796464409E-2</v>
       </c>
-      <c r="C40" s="10">
-        <f t="shared" si="9"/>
+      <c r="C42" s="10">
+        <f t="shared" ref="C42:N43" si="10">C29/C28-1</f>
         <v>1.6916384726921141E-2</v>
       </c>
-      <c r="D40" s="10">
-        <f t="shared" si="9"/>
+      <c r="D42" s="10">
+        <f t="shared" si="10"/>
         <v>7.9729403237496221E-3</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="9"/>
+      <c r="E42" s="10">
+        <f t="shared" si="10"/>
         <v>4.3999022243950137E-2</v>
       </c>
-      <c r="F40" s="10">
-        <f t="shared" si="9"/>
+      <c r="F42" s="10">
+        <f t="shared" si="10"/>
         <v>8.9610075078709883E-3</v>
       </c>
-      <c r="G40" s="10">
-        <f t="shared" si="9"/>
+      <c r="G42" s="10">
+        <f t="shared" si="10"/>
         <v>1.9159911569639032E-2</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" si="9"/>
+      <c r="H42" s="10">
+        <f t="shared" si="10"/>
         <v>3.5549062576089696E-2</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="9"/>
+      <c r="I42" s="10">
+        <f t="shared" si="10"/>
         <v>8.2604470359572968E-3</v>
       </c>
-      <c r="J40" s="10">
-        <f t="shared" si="9"/>
+      <c r="J42" s="10">
+        <f t="shared" si="10"/>
         <v>5.5515327057686914E-3</v>
       </c>
-      <c r="K40" s="10">
-        <f t="shared" si="9"/>
-        <v>-8.9749645725083482E-3</v>
-      </c>
-      <c r="L40" s="10">
-        <f t="shared" si="9"/>
-        <v>-5.0347638456006427E-3</v>
-      </c>
-      <c r="M40" s="10">
-        <f t="shared" si="9"/>
-        <v>-5.2644173247188286E-3</v>
-      </c>
-      <c r="N40" s="14">
-        <f t="shared" si="9"/>
-        <v>1.1608723643972363E-2</v>
-      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="10"/>
+        <v>-1.0628247520075629E-2</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="10"/>
+        <v>-3.5962598897146814E-3</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="10"/>
+        <v>1.6750418760469454E-3</v>
+      </c>
+      <c r="N42" s="14">
+        <f t="shared" si="10"/>
+        <v>1.2172058586834122E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10">
+        <f>B30/B29-1</f>
+        <v>1.649776101814826E-3</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="10"/>
+        <v>4.7528517110266844E-3</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2213,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2226,126 +2258,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3144,10 +3176,16 @@
         <v>32.774999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="19">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C31" s="19">
+        <v>32.299999999999997</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -3160,575 +3198,615 @@
       <c r="M31" s="19"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="0">B21/B20-1</f>
+      <c r="B33" s="10">
+        <f t="shared" ref="B33:N33" si="0">B21/B20-1</f>
         <v>-1.1661807580174877E-2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>5.8309037900874383E-3</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>-8.5470085470086277E-3</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>-8.6705202312139518E-3</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="0"/>
         <v>-5.7636887608070175E-3</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <f t="shared" si="0"/>
         <v>-1.7191977077363974E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <f t="shared" si="0"/>
         <v>-2.9325513196480912E-3</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L33" s="10">
         <f t="shared" si="0"/>
         <v>1.4619883040935644E-2</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M33" s="10">
         <f t="shared" si="0"/>
         <v>-1.7341040462427793E-2</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <f t="shared" si="0"/>
         <v>-5.7971014492754769E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:N33" si="1">B22/B21-1</f>
+      <c r="B34" s="10">
+        <f t="shared" ref="B34:N34" si="1">B22/B21-1</f>
         <v>0</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>2.9069767441860517E-3</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="1"/>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <f t="shared" si="1"/>
         <v>-1.4367816091954033E-2</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>1.449275362318847E-2</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <f t="shared" si="1"/>
         <v>-5.8309037900873273E-3</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="1"/>
         <v>2.9411764705882248E-3</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L34" s="10">
         <f t="shared" si="1"/>
         <v>-2.8818443804035088E-3</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="1"/>
         <v>5.8823529411764497E-3</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:B41" si="2">B23/B22-1</f>
+      <c r="B35" s="10">
+        <f t="shared" ref="B35:B43" si="2">B23/B22-1</f>
         <v>5.8997050147493457E-3</v>
       </c>
-      <c r="C34" s="10">
-        <f t="shared" ref="C34:N34" si="3">C23/C22-1</f>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35:N35" si="3">C23/C22-1</f>
         <v>-1.4492753623188359E-2</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="3"/>
         <v>-1.4492753623188359E-2</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="3"/>
         <v>8.7719298245612087E-3</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="3"/>
         <v>-2.9154518950436081E-3</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="3"/>
         <v>5.8309037900874383E-3</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="3"/>
         <v>-1.7142857142857237E-2</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <f t="shared" si="3"/>
         <v>8.7976539589442737E-3</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L35" s="10">
         <f t="shared" si="3"/>
         <v>-2.0231213872832443E-2</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="3"/>
         <v>2.9239766081869956E-3</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <f t="shared" si="3"/>
         <v>-2.9154518950436081E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <f t="shared" si="2"/>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="C35" s="10">
-        <f t="shared" ref="C35:N35" si="4">C24/C23-1</f>
+      <c r="C36" s="10">
+        <f t="shared" ref="C36:N36" si="4">C24/C23-1</f>
         <v>-8.8235294117646745E-3</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <f t="shared" si="4"/>
         <v>-1.764705882352946E-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <f t="shared" si="4"/>
         <v>2.9325513196480912E-3</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="4"/>
         <v>-2.0289855072463836E-2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <f t="shared" si="4"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <f t="shared" si="4"/>
         <v>-5.8139534883719923E-3</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <f t="shared" si="4"/>
         <v>2.9069767441860517E-3</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L36" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="10">
         <f t="shared" si="4"/>
         <v>-2.9154518950436081E-3</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <f t="shared" si="4"/>
         <v>-2.9239766081872176E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B37" s="10">
         <f t="shared" si="2"/>
         <v>-1.4619883040935644E-2</v>
       </c>
-      <c r="C36" s="10">
-        <f t="shared" ref="C36:N36" si="5">C25/C24-1</f>
+      <c r="C37" s="10">
+        <f t="shared" ref="C37:N37" si="5">C25/C24-1</f>
         <v>8.9020771513352859E-3</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="5"/>
         <v>1.4970059880239583E-2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <f t="shared" si="5"/>
         <v>2.9239766081869956E-3</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <f t="shared" si="5"/>
         <v>2.9585798816569309E-3</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <f t="shared" si="5"/>
         <v>-5.8651026392962935E-3</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <f t="shared" si="5"/>
         <v>-2.8985507246377384E-3</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <f t="shared" si="5"/>
         <v>-2.9239766081872176E-3</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <f t="shared" si="5"/>
         <v>8.7976539589442737E-3</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <f t="shared" si="5"/>
         <v>-1.7391304347826098E-2</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L37" s="10">
         <f t="shared" si="5"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M37" s="10">
         <f t="shared" si="5"/>
         <v>8.7719298245612087E-3</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <f t="shared" si="5"/>
         <v>-1.2218963831868157E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <f t="shared" si="2"/>
         <v>-2.9673590504450953E-3</v>
       </c>
-      <c r="C37" s="10">
-        <f t="shared" ref="C37:N37" si="6">C26/C25-1</f>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:N38" si="6">C26/C25-1</f>
         <v>-5.8823529411765607E-3</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="6"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="6"/>
         <v>-1.7492711370262204E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="6"/>
         <v>-5.8997050147491237E-3</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="6"/>
         <v>1.1799410029498469E-2</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="6"/>
         <v>-1.744186046511631E-2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="6"/>
         <v>-5.8651026392962935E-3</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <f t="shared" si="6"/>
         <v>-8.720930232558044E-3</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <f t="shared" si="6"/>
         <v>-1.4749262536873142E-2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L38" s="10">
         <f t="shared" si="6"/>
         <v>-8.9020771513353969E-3</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="6"/>
         <v>-1.1594202898550732E-2</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <f t="shared" si="6"/>
         <v>-7.8297039393198098E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <f t="shared" si="2"/>
         <v>-8.9285714285715079E-3</v>
       </c>
-      <c r="C38" s="10">
-        <f t="shared" ref="C38:N38" si="7">C27/C26-1</f>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:N39" si="7">C27/C26-1</f>
         <v>2.9585798816569309E-3</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="7"/>
         <v>-2.9673590504450953E-3</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <f t="shared" si="7"/>
         <v>-2.670623145400608E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <f t="shared" si="7"/>
         <v>-1.7804154302670683E-2</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <f t="shared" si="7"/>
         <v>-3.2069970845480911E-2</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <f t="shared" si="7"/>
         <v>-8.8757396449703485E-3</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <f t="shared" si="7"/>
         <v>1.1799410029498469E-2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <f t="shared" si="7"/>
         <v>-1.1730205278592365E-2</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <f t="shared" si="7"/>
         <v>8.9820359281438389E-3</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L39" s="10">
         <f t="shared" si="7"/>
         <v>2.6946107784431073E-2</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="7"/>
         <v>-1.7595307917888658E-2</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <f t="shared" si="7"/>
         <v>-6.411837237977891E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <f t="shared" si="2"/>
         <v>9.009009009009139E-3</v>
       </c>
-      <c r="C39" s="10">
-        <f t="shared" ref="C39:N39" si="8">C28/C27-1</f>
+      <c r="C40" s="10">
+        <f t="shared" ref="C40:N40" si="8">C28/C27-1</f>
         <v>-1.7699115044247815E-2</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <f t="shared" si="8"/>
         <v>-8.9285714285715079E-3</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <f t="shared" si="8"/>
         <v>1.8292682926829285E-2</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <f t="shared" si="8"/>
         <v>3.0211480362537735E-2</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <f t="shared" si="8"/>
         <v>1.5060240963855387E-2</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="8"/>
         <v>8.9552238805969964E-3</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="8"/>
         <v>5.8309037900874383E-3</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <f t="shared" si="8"/>
         <v>-2.9673590504450953E-3</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L40" s="10">
         <f t="shared" si="8"/>
         <v>-2.0408163265306034E-2</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <f t="shared" si="8"/>
         <v>5.9701492537314049E-3</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <f t="shared" si="8"/>
         <v>3.4748076445769716E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B41" s="10">
         <f t="shared" si="2"/>
         <v>1.1904761904761862E-2</v>
       </c>
-      <c r="C40" s="10">
-        <f t="shared" ref="C40:N41" si="9">C29/C28-1</f>
+      <c r="C41" s="10">
+        <f t="shared" ref="C41:N43" si="9">C29/C28-1</f>
         <v>0</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="9"/>
         <v>-3.0030030030028243E-3</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <f t="shared" si="9"/>
         <v>-8.9820359281436168E-3</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <f t="shared" si="9"/>
         <v>-1.4662756598240456E-2</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H41" s="10">
         <f t="shared" si="9"/>
         <v>-1.4792899408283988E-2</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <f t="shared" si="9"/>
         <v>-3.4782608695652306E-2</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J41" s="10">
         <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K41" s="10">
         <f t="shared" si="9"/>
         <v>2.9761904761904656E-3</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L41" s="10">
         <f t="shared" si="9"/>
         <v>-8.9285714285715079E-3</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M41" s="10">
         <f t="shared" si="9"/>
         <v>-1.1869436201780603E-2</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <f t="shared" si="9"/>
         <v>-8.904279000741977E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="10">
         <f t="shared" si="2"/>
         <v>-1.1764705882352899E-2</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C42" s="10">
         <f t="shared" si="9"/>
         <v>-9.009009009008917E-3</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <f t="shared" si="9"/>
         <v>-1.2048192771084487E-2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <f t="shared" si="9"/>
         <v>6.0422960725075026E-3</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <f t="shared" si="9"/>
         <v>-2.6785714285714191E-2</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <f t="shared" si="9"/>
         <v>-3.0030030030030019E-2</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H42" s="10">
         <f t="shared" si="9"/>
         <v>-1.501501501501501E-2</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I42" s="10">
         <f t="shared" si="9"/>
         <v>-2.7027027027026973E-2</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J42" s="10">
         <f t="shared" si="9"/>
         <v>-3.3033033033032844E-2</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K42" s="10">
         <f t="shared" si="9"/>
         <v>-2.0771513353115778E-2</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L42" s="10">
         <f t="shared" si="9"/>
         <v>-2.4024024024023927E-2</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M42" s="10">
         <f t="shared" si="9"/>
         <v>-1.8018018018017834E-2</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <f t="shared" si="9"/>
         <v>-1.8467681557274962E-2</v>
       </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.8690476190476275E-2</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.1212121212121349E-2</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3755,10 +3833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3769,126 +3847,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4674,23 +4752,29 @@
         <v>1341.45</v>
       </c>
       <c r="K30" s="11">
-        <v>1384.68</v>
+        <v>1382.37</v>
       </c>
       <c r="L30" s="11">
-        <v>1348.75</v>
+        <v>1350.7</v>
       </c>
       <c r="M30" s="11">
-        <v>1359.34</v>
+        <v>1368.82</v>
       </c>
       <c r="N30" s="16">
         <f>AVERAGE(B30:M30)</f>
-        <v>1373.43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+        <v>1374.1900000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1372.75</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1365.64</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4703,518 +4787,558 @@
       <c r="M31" s="11"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:N32" si="0">B22/B21-1</f>
+      <c r="B33" s="10">
+        <f t="shared" ref="B33:N33" si="0">B22/B21-1</f>
         <v>4.4454225352112742E-2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>4.5030433194015007E-2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>4.173040663132821E-2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>4.0061452261533681E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>3.5775760540667889E-2</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>-1.4921986805822574E-3</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>2.7734852296413592E-2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="0"/>
         <v>6.7671809256661941E-2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <f t="shared" si="0"/>
         <v>2.7165537755797109E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <f t="shared" si="0"/>
         <v>2.2447702485249632E-2</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L33" s="10">
         <f t="shared" si="0"/>
         <v>1.3092295983375912E-2</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M33" s="10">
         <f t="shared" si="0"/>
         <v>1.9886768266628829E-2</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <f t="shared" si="0"/>
         <v>3.1224901390351389E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:N33" si="1">B23/B22-1</f>
+      <c r="B34" s="10">
+        <f t="shared" ref="B34:N34" si="1">B23/B22-1</f>
         <v>1.368696446130091E-2</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>-1.0437808060307363E-2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="1"/>
         <v>-2.2334539990437885E-2</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>-1.1556374252745916E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="1"/>
         <v>2.4157927421259329E-2</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <f t="shared" si="1"/>
         <v>-7.4022285339742089E-3</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="1"/>
         <v>1.4878792912029759E-2</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>-4.39560439560438E-3</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <f t="shared" si="1"/>
         <v>1.3389274624053593E-2</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="1"/>
         <v>4.3691145482683602E-2</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L34" s="10">
         <f t="shared" si="1"/>
         <v>-2.3659998311808872E-2</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="1"/>
         <v>1.6993977481015943E-2</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <f t="shared" si="1"/>
         <v>3.8855283539724894E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:N34" si="2">B24/B23-1</f>
+      <c r="B35" s="10">
+        <f t="shared" ref="B35:N35" si="2">B24/B23-1</f>
         <v>4.0246659102915805E-2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C35" s="10">
         <f t="shared" si="2"/>
         <v>1.7312697126902199E-2</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="2"/>
         <v>1.8522076288947975E-2</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="2"/>
         <v>6.9366550044832165E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="2"/>
         <v>7.1310838393412457E-3</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="2"/>
         <v>4.2710736234129909E-2</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="2"/>
         <v>5.2001412660539259E-2</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="2"/>
         <v>5.497619108032481E-4</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <f t="shared" si="2"/>
         <v>2.3481007755274064E-2</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <f t="shared" si="2"/>
         <v>3.0368272903960936E-2</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L35" s="10">
         <f t="shared" si="2"/>
         <v>3.4288085625113318E-2</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="2"/>
         <v>4.4045074967601128E-2</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <f t="shared" si="2"/>
         <v>3.2937951485268124E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:N35" si="3">B25/B24-1</f>
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:N36" si="3">B25/B24-1</f>
         <v>4.7456498209974551E-3</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <f t="shared" si="3"/>
         <v>3.3671887574014514E-2</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <f t="shared" si="3"/>
         <v>4.0254473433762428E-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <f t="shared" si="3"/>
         <v>2.548315234814913E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="3"/>
         <v>2.7109761888610029E-2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <f t="shared" si="3"/>
         <v>2.2764694458283108E-2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>3.1466470154753123E-2</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <f t="shared" si="3"/>
         <v>3.6281255811594582E-2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <f t="shared" si="3"/>
         <v>5.7683736028997679E-2</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <f t="shared" si="3"/>
         <v>3.000170741424224E-3</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L36" s="10">
         <f t="shared" si="3"/>
         <v>3.156319744552083E-2</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="10">
         <f t="shared" si="3"/>
         <v>5.7271329809533977E-2</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <f t="shared" si="3"/>
         <v>2.9210166879473531E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="10">
-        <f t="shared" ref="B36:N36" si="4">B26/B25-1</f>
+      <c r="B37" s="10">
+        <f t="shared" ref="B37:N37" si="4">B26/B25-1</f>
         <v>4.1017567119655318E-2</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C37" s="10">
         <f t="shared" si="4"/>
         <v>4.3146542540114519E-2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="4"/>
         <v>3.3545430568376666E-2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <f t="shared" si="4"/>
         <v>8.9860439763045363E-3</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <f t="shared" si="4"/>
         <v>3.9174406604747247E-2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <f t="shared" si="4"/>
         <v>7.5508771929824636E-2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
         <v>-1.3415573178380269E-3</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <f t="shared" si="4"/>
         <v>3.5614650460885855E-2</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <f t="shared" si="4"/>
         <v>3.5748930553567648E-2</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <f t="shared" si="4"/>
         <v>2.3426987240803498E-2</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L37" s="10">
         <f t="shared" si="4"/>
         <v>3.1156560704648895E-2</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M37" s="10">
         <f t="shared" si="4"/>
         <v>2.896995708154515E-2</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <f t="shared" si="4"/>
         <v>3.3294907988642652E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10">
-        <f t="shared" ref="B37:N37" si="5">B27/B26-1</f>
+      <c r="B38" s="10">
+        <f t="shared" ref="B38:N38" si="5">B27/B26-1</f>
         <v>1.5195415107856602E-2</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C38" s="10">
         <f t="shared" si="5"/>
         <v>3.4652881979087224E-2</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="5"/>
         <v>2.9721367166940516E-2</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="5"/>
         <v>4.4426789544768308E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="5"/>
         <v>1.0590291570668153E-2</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="5"/>
         <v>-2.875544058155699E-2</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="5"/>
         <v>2.0412705478363158E-2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="5"/>
         <v>5.9343394561895524E-2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <f t="shared" si="5"/>
         <v>6.9091523237796437E-4</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <f t="shared" si="5"/>
         <v>3.1405443082089812E-2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L38" s="10">
         <f t="shared" si="5"/>
         <v>6.6567652097380137E-2</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="5"/>
         <v>-1.2845506339642654E-4</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <f t="shared" si="5"/>
         <v>2.3435129479466354E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="10">
-        <f t="shared" ref="B38:N38" si="6">B28/B27-1</f>
+      <c r="B39" s="10">
+        <f t="shared" ref="B39:N39" si="6">B28/B27-1</f>
         <v>6.1698774492507935E-2</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C39" s="10">
         <f t="shared" si="6"/>
         <v>2.1487904511700684E-2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="6"/>
         <v>3.3881897386253579E-2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <f t="shared" si="6"/>
         <v>3.2267879691469936E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <f t="shared" si="6"/>
         <v>0.11412466687106448</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <f t="shared" si="6"/>
         <v>8.6710136336692445E-2</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <f t="shared" si="6"/>
         <v>7.3466176424765495E-2</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <f t="shared" si="6"/>
         <v>5.7654844226336488E-2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <f t="shared" si="6"/>
         <v>4.4725052166441515E-2</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <f t="shared" si="6"/>
         <v>6.0245590053525921E-2</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L39" s="10">
         <f t="shared" si="6"/>
         <v>4.5975317738073951E-3</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="6"/>
         <v>4.3408275080294878E-2</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <f t="shared" si="6"/>
         <v>5.2415374205210474E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <f>B29/B28-1</f>
         <v>5.1075268817204256E-2</v>
       </c>
-      <c r="C39" s="10">
-        <f t="shared" ref="C39:N40" si="7">C29/C28-1</f>
+      <c r="C40" s="10">
+        <f t="shared" ref="C40:N41" si="7">C29/C28-1</f>
         <v>2.4254452472274313E-2</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <f t="shared" si="7"/>
         <v>2.932584269662919E-2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <f t="shared" si="7"/>
         <v>-2.1517420267641585E-3</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <f t="shared" si="7"/>
         <v>-2.1069714930849637E-2</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <f t="shared" si="7"/>
         <v>-1.4051317856519363E-2</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="7"/>
         <v>-7.5470055078625808E-3</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="7"/>
         <v>-3.6423328927757903E-2</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <f t="shared" si="7"/>
         <v>1.3070743563760256E-2</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <f t="shared" si="7"/>
         <v>3.3492199156900604E-2</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L40" s="10">
         <f t="shared" si="7"/>
         <v>1.8665336746144012E-2</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <f t="shared" si="7"/>
         <v>7.9090889337938286E-3</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <f t="shared" si="7"/>
         <v>7.713095201233422E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B41" s="10">
         <f>B30/B29-1</f>
         <v>1.6933194682555719E-3</v>
       </c>
-      <c r="C40" s="10">
-        <f t="shared" si="7"/>
+      <c r="C41" s="10">
+        <f>C30/C29-1</f>
         <v>7.7579012300881267E-3</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="7"/>
         <v>-4.1698504530073288E-3</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <f t="shared" si="7"/>
         <v>5.0305733612973746E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <f t="shared" si="7"/>
         <v>-1.8063344241498025E-2</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <f t="shared" si="7"/>
         <v>-1.1441090555014632E-2</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H41" s="10">
         <f t="shared" si="7"/>
         <v>1.9998098901018446E-2</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <f t="shared" si="7"/>
         <v>-1.8991266789724626E-2</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J41" s="10">
         <f t="shared" si="7"/>
         <v>-2.7667038749800588E-2</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K41" s="10">
         <f t="shared" si="7"/>
-        <v>-2.9561414574660327E-2</v>
-      </c>
-      <c r="L40" s="10">
+        <v>-3.1180354064168858E-2</v>
+      </c>
+      <c r="L41" s="10">
         <f t="shared" si="7"/>
-        <v>-2.8935735164945964E-2</v>
-      </c>
-      <c r="M40" s="10">
+        <v>-2.7531786830244598E-2</v>
+      </c>
+      <c r="M41" s="10">
         <f t="shared" si="7"/>
-        <v>-2.3188968173554314E-2</v>
-      </c>
-      <c r="N40" s="14">
+        <v>-1.6376714740480414E-2</v>
+      </c>
+      <c r="N41" s="14">
         <f t="shared" si="7"/>
-        <v>-7.0232495648501203E-3</v>
-      </c>
+        <v>-6.4737768357477909E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10">
+        <f>B31/B30-1</f>
+        <v>-3.7105881527724205E-2</v>
+      </c>
+      <c r="C42" s="10">
+        <f>C31/C30-1</f>
+        <v>-1.656296808388058E-2</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77CC94-66D6-4840-83A1-23FD4F0AF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E582E-528D-475B-AA98-E5927092939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="450" windowWidth="18510" windowHeight="10335" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="315" windowWidth="20205" windowHeight="10485" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1594,9 +1594,11 @@
         <v>42.5</v>
       </c>
       <c r="C30" s="7">
-        <v>42.28</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>42.33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>41.87</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2207,9 +2209,12 @@
       </c>
       <c r="C43" s="10">
         <f t="shared" si="10"/>
-        <v>4.7528517110266844E-3</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>5.9410646387831889E-3</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="10"/>
+        <v>3.5953978906999584E-3</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -2223,16 +2228,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2248,7 +2253,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2258,54 +2263,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2314,10 +2319,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2326,10 +2331,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2338,10 +2343,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2350,10 +2355,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2362,10 +2367,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2374,10 +2379,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3184,9 +3189,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C31" s="19">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="D31" s="19"/>
+        <v>32.4</v>
+      </c>
+      <c r="D31" s="19">
+        <v>32.5</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -3794,9 +3801,12 @@
       </c>
       <c r="C43" s="10">
         <f t="shared" si="9"/>
-        <v>-2.1212121212121349E-2</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>-1.8181818181818188E-2</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="9"/>
+        <v>-9.1463414634145312E-3</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -3836,7 +3846,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3847,114 +3857,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3963,10 +3973,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4773,9 +4783,11 @@
         <v>1372.75</v>
       </c>
       <c r="C31" s="11">
-        <v>1365.64</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>1371.49</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1360.78</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -5211,7 +5223,7 @@
         <v>5.1075268817204256E-2</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:N41" si="7">C29/C28-1</f>
+        <f t="shared" ref="C40:N42" si="7">C29/C28-1</f>
         <v>2.4254452472274313E-2</v>
       </c>
       <c r="D40" s="10">
@@ -5326,9 +5338,12 @@
       </c>
       <c r="C42" s="10">
         <f>C31/C30-1</f>
-        <v>-1.656296808388058E-2</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>-1.2350213158198065E-2</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="7"/>
+        <v>-5.5830812177548594E-3</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -5342,17 +5357,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E582E-528D-475B-AA98-E5927092939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E1F8B-9D0A-4624-B03F-B1635502DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="315" windowWidth="20205" windowHeight="10485" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="780" windowWidth="20205" windowHeight="10485" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1597,9 +1597,11 @@
         <v>42.33</v>
       </c>
       <c r="D30" s="7">
-        <v>41.87</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>42.11</v>
+      </c>
+      <c r="E30" s="7">
+        <v>42.06</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2213,9 +2215,12 @@
       </c>
       <c r="D43" s="10">
         <f t="shared" si="10"/>
-        <v>3.5953978906999584E-3</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>9.3480345158196698E-3</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="10"/>
+        <v>-1.5218918286115657E-2</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2228,16 +2233,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2253,7 +2258,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2263,54 +2268,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2319,10 +2324,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2331,10 +2336,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2343,10 +2348,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2355,10 +2360,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2367,10 +2372,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2379,10 +2384,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3194,7 +3199,9 @@
       <c r="D31" s="19">
         <v>32.5</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="19">
+        <v>32.4</v>
+      </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -3807,7 +3814,10 @@
         <f t="shared" si="9"/>
         <v>-9.1463414634145312E-3</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.7027027027026973E-2</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3846,7 +3856,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3857,114 +3867,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3973,10 +3983,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4786,9 +4796,11 @@
         <v>1371.49</v>
       </c>
       <c r="D31" s="11">
-        <v>1360.78</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>1368.58</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1362.74</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -5342,9 +5354,12 @@
       </c>
       <c r="D42" s="10">
         <f t="shared" si="7"/>
-        <v>-5.5830812177548594E-3</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>1.1692316686384707E-4</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="7"/>
+        <v>-4.1835414557317985E-2</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -5357,17 +5372,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E1F8B-9D0A-4624-B03F-B1635502DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9573ADB-3C42-468B-99E1-A4A03E743994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="780" windowWidth="20205" windowHeight="10485" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="780" windowWidth="19965" windowHeight="9690" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1600,9 +1600,11 @@
         <v>42.11</v>
       </c>
       <c r="E30" s="7">
-        <v>42.06</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>41.99</v>
+      </c>
+      <c r="F30" s="7">
+        <v>42.11</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2219,9 +2221,12 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" si="10"/>
-        <v>-1.5218918286115657E-2</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>-1.6857878716928121E-2</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="10"/>
+        <v>1.0801728276524258E-2</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -2233,16 +2238,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2258,7 +2263,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2268,54 +2273,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2324,10 +2329,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2336,10 +2341,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2348,10 +2353,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2360,10 +2365,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2372,10 +2377,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2384,10 +2389,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3202,7 +3207,9 @@
       <c r="E31" s="19">
         <v>32.4</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="19">
+        <v>32.299999999999997</v>
+      </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -3818,7 +3825,10 @@
         <f t="shared" si="9"/>
         <v>-2.7027027027026973E-2</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.2232415902140858E-2</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -3856,7 +3866,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3867,114 +3877,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3983,10 +3993,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4799,9 +4809,11 @@
         <v>1368.58</v>
       </c>
       <c r="E31" s="11">
-        <v>1362.74</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>1360.48</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1360.15</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -5358,9 +5370,12 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" si="7"/>
-        <v>-4.1835414557317985E-2</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>-4.3424457194285115E-2</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.5635552162550637E-3</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -5372,17 +5387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9573ADB-3C42-468B-99E1-A4A03E743994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F5901-8237-4A95-B60F-6FF8B917C5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="780" windowWidth="19965" windowHeight="9690" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="480" windowWidth="14385" windowHeight="10110" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1603,9 +1603,11 @@
         <v>41.99</v>
       </c>
       <c r="F30" s="7">
-        <v>42.11</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>42.02</v>
+      </c>
+      <c r="G30" s="7">
+        <v>43.04</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2225,9 +2227,12 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="10"/>
-        <v>1.0801728276524258E-2</v>
-      </c>
-      <c r="G43" s="10"/>
+        <v>8.6413826212194955E-3</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="10"/>
+        <v>3.7358399614364934E-2</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -2238,16 +2243,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2273,54 +2278,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2329,10 +2334,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2341,10 +2346,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2353,10 +2358,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2365,10 +2370,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2377,10 +2382,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2389,10 +2394,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3210,7 +3215,9 @@
       <c r="F31" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19">
+        <v>32.9</v>
+      </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -3829,7 +3836,10 @@
         <f t="shared" si="9"/>
         <v>-1.2232415902140858E-2</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10">
+        <f t="shared" si="9"/>
+        <v>1.8575851393188847E-2</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -3866,7 +3876,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3877,114 +3887,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3993,10 +4003,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4812,9 +4822,11 @@
         <v>1360.48</v>
       </c>
       <c r="F31" s="11">
-        <v>1360.15</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>1357.25</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1416.02</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -5374,9 +5386,12 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="7"/>
-        <v>-1.5635552162550637E-3</v>
-      </c>
-      <c r="G42" s="10"/>
+        <v>-3.6923393135037674E-3</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="7"/>
+        <v>5.6628834516054383E-2</v>
+      </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -5387,17 +5402,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F5901-8237-4A95-B60F-6FF8B917C5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3E962-DE33-4D3D-A97D-34A1D45E9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="480" windowWidth="14385" windowHeight="10110" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="19305" windowHeight="9780" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1606,9 +1606,11 @@
         <v>42.02</v>
       </c>
       <c r="G30" s="7">
-        <v>43.04</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>43.09</v>
+      </c>
+      <c r="H30" s="7">
+        <v>42.19</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -2231,9 +2233,12 @@
       </c>
       <c r="G43" s="10">
         <f t="shared" si="10"/>
-        <v>3.7358399614364934E-2</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>3.8563509279344377E-2</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="10"/>
+        <v>-7.9943569245239932E-3</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2243,16 +2248,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2268,7 +2273,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2278,54 +2283,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2334,10 +2339,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2346,10 +2351,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2358,10 +2363,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2370,10 +2375,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2382,10 +2387,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2394,10 +2399,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3218,7 +3223,9 @@
       <c r="G31" s="19">
         <v>32.9</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19">
+        <v>32.299999999999997</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -3840,7 +3847,10 @@
         <f t="shared" si="9"/>
         <v>1.8575851393188847E-2</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.5243902439024404E-2</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -3876,7 +3886,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3887,114 +3897,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4003,10 +4013,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4825,9 +4835,11 @@
         <v>1357.25</v>
       </c>
       <c r="G31" s="11">
-        <v>1416.02</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>1417.66</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1362.74</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -5390,9 +5402,12 @@
       </c>
       <c r="G42" s="10">
         <f t="shared" si="7"/>
-        <v>5.6628834516054383E-2</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>5.7852596389902367E-2</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.3111442457956377E-2</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -5402,17 +5417,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3E962-DE33-4D3D-A97D-34A1D45E9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BCE264-EBC8-4BEA-B0A6-11350E8F8EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="19305" windowHeight="9780" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="780" windowWidth="19725" windowHeight="10500" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1609,9 +1609,11 @@
         <v>43.09</v>
       </c>
       <c r="H30" s="7">
-        <v>42.19</v>
-      </c>
-      <c r="I30" s="7"/>
+        <v>42.11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>42.03</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2237,9 +2239,12 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="10"/>
-        <v>-7.9943569245239932E-3</v>
-      </c>
-      <c r="I43" s="10"/>
+        <v>-9.8753820832353512E-3</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="10"/>
+        <v>1.2771084337349414E-2</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -2248,16 +2253,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2273,7 +2278,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2283,54 +2288,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2339,10 +2344,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2351,10 +2356,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2363,10 +2368,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2375,10 +2380,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2387,10 +2392,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2399,10 +2404,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3226,7 +3231,9 @@
       <c r="H31" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="19">
+        <v>32.5</v>
+      </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -3851,7 +3858,10 @@
         <f t="shared" si="9"/>
         <v>-1.5243902439024404E-2</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" s="10">
+        <f t="shared" si="9"/>
+        <v>3.0864197530864335E-3</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -3885,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3897,114 +3907,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4013,10 +4023,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4838,9 +4848,11 @@
         <v>1417.66</v>
       </c>
       <c r="H31" s="11">
-        <v>1362.74</v>
-      </c>
-      <c r="I31" s="11"/>
+        <v>1360.15</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1365.98</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -5406,9 +5418,12 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="7"/>
-        <v>-2.3111442457956377E-2</v>
-      </c>
-      <c r="I42" s="10"/>
+        <v>-2.4968099901073848E-2</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="7"/>
+        <v>1.5900639595418875E-2</v>
+      </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -5417,17 +5432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BCE264-EBC8-4BEA-B0A6-11350E8F8EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1BF88E-EE62-42F9-A21F-9139BD5FE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="780" windowWidth="19725" windowHeight="10500" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="405" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1612,9 +1612,11 @@
         <v>42.11</v>
       </c>
       <c r="I30" s="7">
-        <v>42.03</v>
-      </c>
-      <c r="J30" s="7"/>
+        <v>42.02</v>
+      </c>
+      <c r="J30" s="7">
+        <v>43.01</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -2243,9 +2245,12 @@
       </c>
       <c r="I43" s="10">
         <f t="shared" si="10"/>
-        <v>1.2771084337349414E-2</v>
-      </c>
-      <c r="J43" s="10"/>
+        <v>1.2530120481927698E-2</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2405184829572775E-2</v>
+      </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -2253,16 +2258,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2278,7 +2283,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2288,54 +2293,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2344,10 +2349,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2356,10 +2361,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2368,10 +2373,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2380,10 +2385,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2392,10 +2397,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2404,10 +2409,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3234,7 +3239,9 @@
       <c r="I31" s="19">
         <v>32.5</v>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="19">
+        <v>33</v>
+      </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -3862,7 +3869,10 @@
         <f t="shared" si="9"/>
         <v>3.0864197530864335E-3</v>
       </c>
-      <c r="J43" s="10"/>
+      <c r="J43" s="10">
+        <f t="shared" si="9"/>
+        <v>2.4844720496894235E-2</v>
+      </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -3895,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3907,114 +3917,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4023,10 +4033,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4851,9 +4861,11 @@
         <v>1360.15</v>
       </c>
       <c r="I31" s="11">
-        <v>1365.98</v>
-      </c>
-      <c r="J31" s="11"/>
+        <v>1365.65</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1422.3</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -5422,9 +5434,12 @@
       </c>
       <c r="I42" s="10">
         <f t="shared" si="7"/>
-        <v>1.5900639595418875E-2</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>1.5655213446378324E-2</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="7"/>
+        <v>6.027060270602691E-2</v>
+      </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -5432,17 +5447,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1BF88E-EE62-42F9-A21F-9139BD5FE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA8C96-FA19-473D-AC56-D1487BA11649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="405" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1615,9 +1615,11 @@
         <v>42.02</v>
       </c>
       <c r="J30" s="7">
-        <v>43.01</v>
-      </c>
-      <c r="K30" s="7"/>
+        <v>43.05</v>
+      </c>
+      <c r="K30" s="7">
+        <v>42.52</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="12"/>
@@ -2249,25 +2251,28 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" si="10"/>
-        <v>3.2405184829572775E-2</v>
-      </c>
-      <c r="K43" s="10"/>
+        <v>3.3365338454152571E-2</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="10"/>
+        <v>1.5039388875626614E-2</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2283,7 +2288,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2293,54 +2298,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2349,10 +2354,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2361,10 +2366,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2373,10 +2378,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2385,10 +2390,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2397,10 +2402,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2409,10 +2414,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3240,9 +3245,11 @@
         <v>32.5</v>
       </c>
       <c r="J31" s="19">
-        <v>33</v>
-      </c>
-      <c r="K31" s="19"/>
+        <v>32.9</v>
+      </c>
+      <c r="K31" s="19">
+        <v>32.200000000000003</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="20"/>
@@ -3871,9 +3878,12 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" si="9"/>
-        <v>2.4844720496894235E-2</v>
-      </c>
-      <c r="K43" s="10"/>
+        <v>2.1739130434782483E-2</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.4242424242424176E-2</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="14"/>
@@ -3906,7 +3916,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3917,114 +3927,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4033,10 +4043,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4864,9 +4874,11 @@
         <v>1365.65</v>
       </c>
       <c r="J31" s="11">
-        <v>1422.3</v>
-      </c>
-      <c r="K31" s="11"/>
+        <v>1416.35</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1369.14</v>
+      </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="16"/>
@@ -5438,26 +5450,29 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" si="7"/>
-        <v>6.027060270602691E-2</v>
-      </c>
-      <c r="K42" s="10"/>
+        <v>5.5835103805583319E-2</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="7"/>
+        <v>-9.5705201935804007E-3</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA8C96-FA19-473D-AC56-D1487BA11649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1BB44A-C3A6-4D4C-B1D9-8B01232CED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="285" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1618,9 +1618,11 @@
         <v>43.05</v>
       </c>
       <c r="K30" s="7">
-        <v>42.52</v>
-      </c>
-      <c r="L30" s="7"/>
+        <v>42.69</v>
+      </c>
+      <c r="L30" s="7">
+        <v>42.48</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="12"/>
     </row>
@@ -2255,24 +2257,27 @@
       </c>
       <c r="K43" s="10">
         <f t="shared" si="10"/>
-        <v>1.5039388875626614E-2</v>
-      </c>
-      <c r="L43" s="10"/>
+        <v>1.9097636667462226E-2</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="10"/>
+        <v>2.21366698748795E-2</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2288,7 +2293,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,54 +2303,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2354,10 +2359,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2366,10 +2371,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2378,10 +2383,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2390,10 +2395,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2402,10 +2407,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2414,10 +2419,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3250,7 +3255,9 @@
       <c r="K31" s="19">
         <v>32.200000000000003</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="19">
+        <v>32.1</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="20"/>
     </row>
@@ -3884,7 +3891,10 @@
         <f t="shared" si="9"/>
         <v>-2.4242424242424176E-2</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.2307692307692242E-2</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="14"/>
     </row>
@@ -3927,114 +3937,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4043,10 +4053,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4877,9 +4887,11 @@
         <v>1416.35</v>
       </c>
       <c r="K31" s="11">
-        <v>1369.14</v>
-      </c>
-      <c r="L31" s="11"/>
+        <v>1374.62</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1363.61</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="16"/>
     </row>
@@ -5454,25 +5466,28 @@
       </c>
       <c r="K42" s="10">
         <f t="shared" si="7"/>
-        <v>-9.5705201935804007E-3</v>
-      </c>
-      <c r="L42" s="10"/>
+        <v>-5.6063137944255548E-3</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="7"/>
+        <v>9.5580069593543815E-3</v>
+      </c>
       <c r="M42" s="10"/>
       <c r="N42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/raw_data/earnings.xlsx
+++ b/raw_data/earnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1BB44A-C3A6-4D4C-B1D9-8B01232CED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610C914-91F0-4502-903B-BCD92DB51D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="285" windowWidth="19725" windowHeight="10500" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="255" windowWidth="19725" windowHeight="10500" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average hourly earnings" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,120 +669,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1621,10 +1621,15 @@
         <v>42.69</v>
       </c>
       <c r="L30" s="7">
-        <v>42.48</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="12"/>
+        <v>42.72</v>
+      </c>
+      <c r="M30" s="7">
+        <v>43.57</v>
+      </c>
+      <c r="N30" s="12">
+        <f>AVERAGE(B30:M30)</f>
+        <v>42.516666666666666</v>
+      </c>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="N31" s="13"/>
@@ -2261,23 +2266,29 @@
       </c>
       <c r="L43" s="10">
         <f t="shared" si="10"/>
-        <v>2.21366698748795E-2</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="14"/>
+        <v>2.791145332050049E-2</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="10"/>
+        <v>4.085045389393227E-2</v>
+      </c>
+      <c r="N43" s="14">
+        <f t="shared" si="10"/>
+        <v>1.4132660160209864E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2293,7 +2304,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2303,54 +2314,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2359,10 +2370,10 @@
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2371,10 +2382,10 @@
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2383,10 +2394,10 @@
       <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2395,10 +2406,10 @@
       <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2407,10 +2418,10 @@
       <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2419,10 +2430,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3258,8 +3269,13 @@
       <c r="L31" s="19">
         <v>32.1</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="M31" s="19">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="N31" s="20">
+        <f>AVERAGE(B31:M31)</f>
+        <v>32.466666666666661</v>
+      </c>
     </row>
     <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -3895,8 +3911,14 @@
         <f t="shared" si="9"/>
         <v>-1.2307692307692242E-2</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="14"/>
+      <c r="M43" s="10">
+        <f t="shared" si="9"/>
+        <v>3.0581039755350758E-3</v>
+      </c>
+      <c r="N43" s="14">
+        <f t="shared" si="9"/>
+        <v>-9.4075769132978548E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3925,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3937,114 +3959,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4053,10 +4075,10 @@
       <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4890,10 +4912,15 @@
         <v>1374.62</v>
       </c>
       <c r="L31" s="11">
-        <v>1363.61</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="16"/>
+        <v>1371.31</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1429.1</v>
+      </c>
+      <c r="N31" s="16">
+        <f>AVERAGE(B31:M31)</f>
+        <v>1380.4491666666665</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
@@ -5470,24 +5497,30 @@
       </c>
       <c r="L42" s="10">
         <f t="shared" si="7"/>
-        <v>9.5580069593543815E-3</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="14"/>
+        <v>1.5258754719774892E-2</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="7"/>
+        <v>4.4037930480267606E-2</v>
+      </c>
+      <c r="N42" s="14">
+        <f t="shared" si="7"/>
+        <v>4.5548044059890991E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
